--- a/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.79828226671513</v>
+        <v>21.79828226671518</v>
       </c>
       <c r="C2">
         <v>15.56258706168913</v>
       </c>
       <c r="D2">
-        <v>7.343699269823692</v>
+        <v>7.343699269823804</v>
       </c>
       <c r="E2">
-        <v>30.39507955421008</v>
+        <v>30.39507955421012</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64.01034411962362</v>
+        <v>64.01034411962388</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>19.4451756787613</v>
+        <v>19.44517567876135</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.06473246032168</v>
+        <v>20.06473246032184</v>
       </c>
       <c r="C3">
-        <v>14.30589013590568</v>
+        <v>14.30589013590581</v>
       </c>
       <c r="D3">
-        <v>6.787206478447676</v>
+        <v>6.787206478447596</v>
       </c>
       <c r="E3">
-        <v>27.97144838419737</v>
+        <v>27.97144838419739</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.71808315503957</v>
+        <v>59.7180831550396</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.91892041231984</v>
+        <v>17.91892041231996</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.96743243069542</v>
+        <v>18.96743243069551</v>
       </c>
       <c r="C4">
-        <v>13.51461843683559</v>
+        <v>13.51461843683575</v>
       </c>
       <c r="D4">
-        <v>6.432808857554337</v>
+        <v>6.432808857554321</v>
       </c>
       <c r="E4">
-        <v>26.44303174434699</v>
+        <v>26.44303174434709</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.01995585428801</v>
+        <v>57.0199558542881</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.95328638898769</v>
+        <v>16.9532863889877</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.51123474585782</v>
+        <v>18.51123474585768</v>
       </c>
       <c r="C5">
-        <v>13.18652676166778</v>
+        <v>13.18652676166769</v>
       </c>
       <c r="D5">
-        <v>6.284988100401366</v>
+        <v>6.284988100401288</v>
       </c>
       <c r="E5">
-        <v>25.80871988976446</v>
+        <v>25.80871988976441</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.90362173375745</v>
+        <v>55.90362173375701</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>16.55188211905302</v>
+        <v>16.55188211905291</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.43491747284944</v>
+        <v>18.4349174728495</v>
       </c>
       <c r="C6">
-        <v>13.1316882090847</v>
+        <v>13.13168820908451</v>
       </c>
       <c r="D6">
-        <v>6.260231724205076</v>
+        <v>6.260231724205028</v>
       </c>
       <c r="E6">
-        <v>25.70266515448917</v>
+        <v>25.70266515448927</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.71721549202435</v>
+        <v>55.71721549202429</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.48473275095038</v>
+        <v>16.48473275095037</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.96131751072342</v>
+        <v>18.9613175107234</v>
       </c>
       <c r="C7">
-        <v>13.510217368069</v>
+        <v>13.51021736806884</v>
       </c>
       <c r="D7">
-        <v>6.430829315063892</v>
+        <v>6.430829315063824</v>
       </c>
       <c r="E7">
-        <v>26.43452524188938</v>
+        <v>26.43452524188929</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.00496982828284</v>
+        <v>57.00496982828235</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.94790578694924</v>
+        <v>16.94790578694918</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.20687612105982</v>
+        <v>21.20687612105976</v>
       </c>
       <c r="C8">
-        <v>15.13289878226611</v>
+        <v>15.13289878226633</v>
       </c>
       <c r="D8">
-        <v>7.154324794029335</v>
+        <v>7.154324794029251</v>
       </c>
       <c r="E8">
-        <v>29.56689575247539</v>
+        <v>29.56689575247534</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.54260312497322</v>
+        <v>62.54260312497294</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>18.92436059842617</v>
+        <v>18.92436059842614</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.39277809902971</v>
+        <v>25.39277809902958</v>
       </c>
       <c r="C9">
-        <v>18.19824412078819</v>
+        <v>18.19824412078805</v>
       </c>
       <c r="D9">
-        <v>8.483548227932676</v>
+        <v>8.483548227932586</v>
       </c>
       <c r="E9">
-        <v>35.46552387841025</v>
+        <v>35.46552387841016</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.97826019959017</v>
+        <v>72.97826019958949</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>22.61483929058461</v>
+        <v>22.61483929058445</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.41559453057877</v>
+        <v>28.41559453057888</v>
       </c>
       <c r="C10">
-        <v>20.45152808294116</v>
+        <v>20.45152808294112</v>
       </c>
       <c r="D10">
-        <v>9.425902129583173</v>
+        <v>9.425902129583227</v>
       </c>
       <c r="E10">
-        <v>39.79258581496543</v>
+        <v>39.79258581496547</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>80.5400445450892</v>
+        <v>80.54004454508956</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>25.28815607323103</v>
+        <v>25.28815607323109</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.80596914131095</v>
+        <v>29.80596914131092</v>
       </c>
       <c r="C11">
-        <v>21.50097366908785</v>
+        <v>21.5009736690876</v>
       </c>
       <c r="D11">
-        <v>9.853773085643855</v>
+        <v>9.853773085643747</v>
       </c>
       <c r="E11">
-        <v>41.80806457075661</v>
+        <v>41.80806457075655</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>84.01213597003665</v>
+        <v>84.01213597003704</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>26.52085406413544</v>
+        <v>26.52085406413541</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.33796812635548</v>
+        <v>30.33796812635537</v>
       </c>
       <c r="C12">
-        <v>21.90488706759969</v>
+        <v>21.90488706759976</v>
       </c>
       <c r="D12">
-        <v>10.01648445460893</v>
+        <v>10.01648445460885</v>
       </c>
       <c r="E12">
-        <v>42.58420299069029</v>
+        <v>42.58420299069034</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>85.33855386525752</v>
+        <v>85.33855386525751</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>26.99310595340529</v>
+        <v>26.9931059534053</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.22308158832471</v>
+        <v>30.22308158832463</v>
       </c>
       <c r="C13">
-        <v>21.81754666723453</v>
+        <v>21.81754666723427</v>
       </c>
       <c r="D13">
-        <v>9.98139505349593</v>
+        <v>9.981395053496039</v>
       </c>
       <c r="E13">
-        <v>42.41634685164887</v>
+        <v>42.41634685164881</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>85.05222732877026</v>
+        <v>85.05222732877041</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>26.89109330452107</v>
+        <v>26.891093304521</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.84960339166959</v>
+        <v>29.84960339166983</v>
       </c>
       <c r="C14">
-        <v>21.53405192631362</v>
+        <v>21.53405192631375</v>
       </c>
       <c r="D14">
-        <v>9.86714002314856</v>
+        <v>9.867140023148535</v>
       </c>
       <c r="E14">
-        <v>41.87161455563525</v>
+        <v>41.87161455563536</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>84.12097830051559</v>
+        <v>84.1209783005157</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>26.55957526868626</v>
+        <v>26.55957526868643</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.62167227439625</v>
+        <v>29.62167227439624</v>
       </c>
       <c r="C15">
-        <v>21.36136017697895</v>
+        <v>21.36136017697913</v>
       </c>
       <c r="D15">
-        <v>9.797273732744786</v>
+        <v>9.797273732744745</v>
       </c>
       <c r="E15">
-        <v>41.53985860769819</v>
+        <v>41.53985860769836</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>83.55232846275356</v>
+        <v>83.55232846275388</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>26.3573327505699</v>
+        <v>26.35733275056995</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.32529250347021</v>
+        <v>28.32529250346991</v>
       </c>
       <c r="C16">
-        <v>20.38366717250884</v>
+        <v>20.3836671725088</v>
       </c>
       <c r="D16">
-        <v>9.397985704473237</v>
+        <v>9.397985704473211</v>
       </c>
       <c r="E16">
-        <v>39.66228889003582</v>
+        <v>39.66228889003579</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>80.31432038911564</v>
+        <v>80.31432038911542</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>25.20816742587269</v>
+        <v>25.20816742587248</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.53590904785191</v>
+        <v>27.53590904785182</v>
       </c>
       <c r="C17">
-        <v>19.79194470372756</v>
+        <v>19.79194470372748</v>
       </c>
       <c r="D17">
-        <v>9.15331543699782</v>
+        <v>9.15331543699789</v>
       </c>
       <c r="E17">
-        <v>38.52619013841716</v>
+        <v>38.52619013841709</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>78.34033767237571</v>
+        <v>78.34033767237597</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>24.50929416280757</v>
+        <v>24.50929416280741</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.08306320873988</v>
+        <v>27.08306320873965</v>
       </c>
       <c r="C18">
-        <v>19.45367030335656</v>
+        <v>19.45367030335673</v>
       </c>
       <c r="D18">
-        <v>9.012450482452456</v>
+        <v>9.012450482452364</v>
       </c>
       <c r="E18">
-        <v>37.8766930668336</v>
+        <v>37.87669306683355</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>77.20744691832078</v>
+        <v>77.20744691831999</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>24.10864830586192</v>
+        <v>24.10864830586184</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.92985931530962</v>
+        <v>26.92985931530982</v>
       </c>
       <c r="C19">
-        <v>19.33941738740489</v>
+        <v>19.33941738740498</v>
       </c>
       <c r="D19">
-        <v>8.96471238388609</v>
+        <v>8.964712383886061</v>
       </c>
       <c r="E19">
-        <v>37.65731346932768</v>
+        <v>37.6573134693278</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.82412572509078</v>
+        <v>76.82412572509104</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>23.97314828283523</v>
+        <v>23.97314828283541</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.61979734876433</v>
+        <v>27.61979734876427</v>
       </c>
       <c r="C20">
-        <v>19.85470221421422</v>
+        <v>19.85470221421437</v>
       </c>
       <c r="D20">
-        <v>9.179370264602381</v>
+        <v>9.1793702646023</v>
       </c>
       <c r="E20">
-        <v>38.64668320858273</v>
+        <v>38.64668320858269</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>78.55017133582571</v>
+        <v>78.55017133582581</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>24.58353430292412</v>
+        <v>24.58353430292411</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.95912115008516</v>
+        <v>29.95912115008507</v>
       </c>
       <c r="C21">
-        <v>21.61711463884026</v>
+        <v>21.61711463884023</v>
       </c>
       <c r="D21">
-        <v>9.900672976355187</v>
+        <v>9.900672976355104</v>
       </c>
       <c r="E21">
-        <v>42.03120311281937</v>
+        <v>42.03120311281929</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>84.3941237669523</v>
+        <v>84.39412376695222</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>26.65677159965598</v>
+        <v>26.65677159965592</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.52264477389858</v>
+        <v>31.52264477389873</v>
       </c>
       <c r="C22">
-        <v>22.8092984099932</v>
+        <v>22.80929840999351</v>
       </c>
       <c r="D22">
-        <v>10.37670941694247</v>
+        <v>10.37670941694249</v>
       </c>
       <c r="E22">
-        <v>44.32352356430282</v>
+        <v>44.3235235643028</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>88.37989303093121</v>
+        <v>88.37989303093099</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>28.04599028755139</v>
+        <v>28.04599028755155</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.68352740440272</v>
+        <v>30.68352740440286</v>
       </c>
       <c r="C23">
         <v>22.16797744711839</v>
       </c>
       <c r="D23">
-        <v>10.12186383108768</v>
+        <v>10.12186383108777</v>
       </c>
       <c r="E23">
-        <v>43.08993187420349</v>
+        <v>43.08993187420378</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>86.22476316534376</v>
+        <v>86.22476316534483</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>27.30003992254594</v>
+        <v>27.30003992254607</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.58186862109511</v>
+        <v>27.58186862109513</v>
       </c>
       <c r="C24">
-        <v>19.82632378832767</v>
+        <v>19.82632378832779</v>
       </c>
       <c r="D24">
-        <v>9.167591558419252</v>
+        <v>9.167591558419321</v>
       </c>
       <c r="E24">
-        <v>38.59219731292464</v>
+        <v>38.59219731292466</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>78.45529985961376</v>
+        <v>78.45529985961434</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>24.54996698062871</v>
+        <v>24.54996698062867</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.27667868797508</v>
+        <v>24.27667868797507</v>
       </c>
       <c r="C25">
-        <v>17.37516362376171</v>
+        <v>17.37516362376169</v>
       </c>
       <c r="D25">
-        <v>8.131743138273908</v>
+        <v>8.131743138273864</v>
       </c>
       <c r="E25">
         <v>33.88360967409647</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>70.18777335258662</v>
+        <v>70.18777335258667</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>21.62974368846334</v>
+        <v>21.62974368846335</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.79828226671518</v>
+        <v>21.79828226671513</v>
       </c>
       <c r="C2">
         <v>15.56258706168913</v>
       </c>
       <c r="D2">
-        <v>7.343699269823804</v>
+        <v>7.343699269823692</v>
       </c>
       <c r="E2">
-        <v>30.39507955421012</v>
+        <v>30.39507955421008</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64.01034411962388</v>
+        <v>64.01034411962362</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>19.44517567876135</v>
+        <v>19.4451756787613</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.06473246032184</v>
+        <v>20.06473246032168</v>
       </c>
       <c r="C3">
-        <v>14.30589013590581</v>
+        <v>14.30589013590568</v>
       </c>
       <c r="D3">
-        <v>6.787206478447596</v>
+        <v>6.787206478447676</v>
       </c>
       <c r="E3">
-        <v>27.97144838419739</v>
+        <v>27.97144838419737</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.7180831550396</v>
+        <v>59.71808315503957</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.91892041231996</v>
+        <v>17.91892041231984</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.96743243069551</v>
+        <v>18.96743243069542</v>
       </c>
       <c r="C4">
-        <v>13.51461843683575</v>
+        <v>13.51461843683559</v>
       </c>
       <c r="D4">
-        <v>6.432808857554321</v>
+        <v>6.432808857554337</v>
       </c>
       <c r="E4">
-        <v>26.44303174434709</v>
+        <v>26.44303174434699</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.0199558542881</v>
+        <v>57.01995585428801</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.9532863889877</v>
+        <v>16.95328638898769</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.51123474585768</v>
+        <v>18.51123474585782</v>
       </c>
       <c r="C5">
-        <v>13.18652676166769</v>
+        <v>13.18652676166778</v>
       </c>
       <c r="D5">
-        <v>6.284988100401288</v>
+        <v>6.284988100401366</v>
       </c>
       <c r="E5">
-        <v>25.80871988976441</v>
+        <v>25.80871988976446</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.90362173375701</v>
+        <v>55.90362173375745</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>16.55188211905291</v>
+        <v>16.55188211905302</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.4349174728495</v>
+        <v>18.43491747284944</v>
       </c>
       <c r="C6">
-        <v>13.13168820908451</v>
+        <v>13.1316882090847</v>
       </c>
       <c r="D6">
-        <v>6.260231724205028</v>
+        <v>6.260231724205076</v>
       </c>
       <c r="E6">
-        <v>25.70266515448927</v>
+        <v>25.70266515448917</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.71721549202429</v>
+        <v>55.71721549202435</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.48473275095037</v>
+        <v>16.48473275095038</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.9613175107234</v>
+        <v>18.96131751072342</v>
       </c>
       <c r="C7">
-        <v>13.51021736806884</v>
+        <v>13.510217368069</v>
       </c>
       <c r="D7">
-        <v>6.430829315063824</v>
+        <v>6.430829315063892</v>
       </c>
       <c r="E7">
-        <v>26.43452524188929</v>
+        <v>26.43452524188938</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.00496982828235</v>
+        <v>57.00496982828284</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.94790578694918</v>
+        <v>16.94790578694924</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.20687612105976</v>
+        <v>21.20687612105982</v>
       </c>
       <c r="C8">
-        <v>15.13289878226633</v>
+        <v>15.13289878226611</v>
       </c>
       <c r="D8">
-        <v>7.154324794029251</v>
+        <v>7.154324794029335</v>
       </c>
       <c r="E8">
-        <v>29.56689575247534</v>
+        <v>29.56689575247539</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.54260312497294</v>
+        <v>62.54260312497322</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>18.92436059842614</v>
+        <v>18.92436059842617</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.39277809902958</v>
+        <v>25.39277809902971</v>
       </c>
       <c r="C9">
-        <v>18.19824412078805</v>
+        <v>18.19824412078819</v>
       </c>
       <c r="D9">
-        <v>8.483548227932586</v>
+        <v>8.483548227932676</v>
       </c>
       <c r="E9">
-        <v>35.46552387841016</v>
+        <v>35.46552387841025</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.97826019958949</v>
+        <v>72.97826019959017</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>22.61483929058445</v>
+        <v>22.61483929058461</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.41559453057888</v>
+        <v>28.41559453057877</v>
       </c>
       <c r="C10">
-        <v>20.45152808294112</v>
+        <v>20.45152808294116</v>
       </c>
       <c r="D10">
-        <v>9.425902129583227</v>
+        <v>9.425902129583173</v>
       </c>
       <c r="E10">
-        <v>39.79258581496547</v>
+        <v>39.79258581496543</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>80.54004454508956</v>
+        <v>80.5400445450892</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>25.28815607323109</v>
+        <v>25.28815607323103</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.80596914131092</v>
+        <v>29.80596914131095</v>
       </c>
       <c r="C11">
-        <v>21.5009736690876</v>
+        <v>21.50097366908785</v>
       </c>
       <c r="D11">
-        <v>9.853773085643747</v>
+        <v>9.853773085643855</v>
       </c>
       <c r="E11">
-        <v>41.80806457075655</v>
+        <v>41.80806457075661</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>84.01213597003704</v>
+        <v>84.01213597003665</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>26.52085406413541</v>
+        <v>26.52085406413544</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.33796812635537</v>
+        <v>30.33796812635548</v>
       </c>
       <c r="C12">
-        <v>21.90488706759976</v>
+        <v>21.90488706759969</v>
       </c>
       <c r="D12">
-        <v>10.01648445460885</v>
+        <v>10.01648445460893</v>
       </c>
       <c r="E12">
-        <v>42.58420299069034</v>
+        <v>42.58420299069029</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>85.33855386525751</v>
+        <v>85.33855386525752</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>26.9931059534053</v>
+        <v>26.99310595340529</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.22308158832463</v>
+        <v>30.22308158832471</v>
       </c>
       <c r="C13">
-        <v>21.81754666723427</v>
+        <v>21.81754666723453</v>
       </c>
       <c r="D13">
-        <v>9.981395053496039</v>
+        <v>9.98139505349593</v>
       </c>
       <c r="E13">
-        <v>42.41634685164881</v>
+        <v>42.41634685164887</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>85.05222732877041</v>
+        <v>85.05222732877026</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>26.891093304521</v>
+        <v>26.89109330452107</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.84960339166983</v>
+        <v>29.84960339166959</v>
       </c>
       <c r="C14">
-        <v>21.53405192631375</v>
+        <v>21.53405192631362</v>
       </c>
       <c r="D14">
-        <v>9.867140023148535</v>
+        <v>9.86714002314856</v>
       </c>
       <c r="E14">
-        <v>41.87161455563536</v>
+        <v>41.87161455563525</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>84.1209783005157</v>
+        <v>84.12097830051559</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>26.55957526868643</v>
+        <v>26.55957526868626</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.62167227439624</v>
+        <v>29.62167227439625</v>
       </c>
       <c r="C15">
-        <v>21.36136017697913</v>
+        <v>21.36136017697895</v>
       </c>
       <c r="D15">
-        <v>9.797273732744745</v>
+        <v>9.797273732744786</v>
       </c>
       <c r="E15">
-        <v>41.53985860769836</v>
+        <v>41.53985860769819</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>83.55232846275388</v>
+        <v>83.55232846275356</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>26.35733275056995</v>
+        <v>26.3573327505699</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.32529250346991</v>
+        <v>28.32529250347021</v>
       </c>
       <c r="C16">
-        <v>20.3836671725088</v>
+        <v>20.38366717250884</v>
       </c>
       <c r="D16">
-        <v>9.397985704473211</v>
+        <v>9.397985704473237</v>
       </c>
       <c r="E16">
-        <v>39.66228889003579</v>
+        <v>39.66228889003582</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>80.31432038911542</v>
+        <v>80.31432038911564</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>25.20816742587248</v>
+        <v>25.20816742587269</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.53590904785182</v>
+        <v>27.53590904785191</v>
       </c>
       <c r="C17">
-        <v>19.79194470372748</v>
+        <v>19.79194470372756</v>
       </c>
       <c r="D17">
-        <v>9.15331543699789</v>
+        <v>9.15331543699782</v>
       </c>
       <c r="E17">
-        <v>38.52619013841709</v>
+        <v>38.52619013841716</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>78.34033767237597</v>
+        <v>78.34033767237571</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>24.50929416280741</v>
+        <v>24.50929416280757</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.08306320873965</v>
+        <v>27.08306320873988</v>
       </c>
       <c r="C18">
-        <v>19.45367030335673</v>
+        <v>19.45367030335656</v>
       </c>
       <c r="D18">
-        <v>9.012450482452364</v>
+        <v>9.012450482452456</v>
       </c>
       <c r="E18">
-        <v>37.87669306683355</v>
+        <v>37.8766930668336</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>77.20744691831999</v>
+        <v>77.20744691832078</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>24.10864830586184</v>
+        <v>24.10864830586192</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.92985931530982</v>
+        <v>26.92985931530962</v>
       </c>
       <c r="C19">
-        <v>19.33941738740498</v>
+        <v>19.33941738740489</v>
       </c>
       <c r="D19">
-        <v>8.964712383886061</v>
+        <v>8.96471238388609</v>
       </c>
       <c r="E19">
-        <v>37.6573134693278</v>
+        <v>37.65731346932768</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.82412572509104</v>
+        <v>76.82412572509078</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>23.97314828283541</v>
+        <v>23.97314828283523</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.61979734876427</v>
+        <v>27.61979734876433</v>
       </c>
       <c r="C20">
-        <v>19.85470221421437</v>
+        <v>19.85470221421422</v>
       </c>
       <c r="D20">
-        <v>9.1793702646023</v>
+        <v>9.179370264602381</v>
       </c>
       <c r="E20">
-        <v>38.64668320858269</v>
+        <v>38.64668320858273</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>78.55017133582581</v>
+        <v>78.55017133582571</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>24.58353430292411</v>
+        <v>24.58353430292412</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.95912115008507</v>
+        <v>29.95912115008516</v>
       </c>
       <c r="C21">
-        <v>21.61711463884023</v>
+        <v>21.61711463884026</v>
       </c>
       <c r="D21">
-        <v>9.900672976355104</v>
+        <v>9.900672976355187</v>
       </c>
       <c r="E21">
-        <v>42.03120311281929</v>
+        <v>42.03120311281937</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>84.39412376695222</v>
+        <v>84.3941237669523</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>26.65677159965592</v>
+        <v>26.65677159965598</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.52264477389873</v>
+        <v>31.52264477389858</v>
       </c>
       <c r="C22">
-        <v>22.80929840999351</v>
+        <v>22.8092984099932</v>
       </c>
       <c r="D22">
-        <v>10.37670941694249</v>
+        <v>10.37670941694247</v>
       </c>
       <c r="E22">
-        <v>44.3235235643028</v>
+        <v>44.32352356430282</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>88.37989303093099</v>
+        <v>88.37989303093121</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>28.04599028755155</v>
+        <v>28.04599028755139</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.68352740440286</v>
+        <v>30.68352740440272</v>
       </c>
       <c r="C23">
         <v>22.16797744711839</v>
       </c>
       <c r="D23">
-        <v>10.12186383108777</v>
+        <v>10.12186383108768</v>
       </c>
       <c r="E23">
-        <v>43.08993187420378</v>
+        <v>43.08993187420349</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>86.22476316534483</v>
+        <v>86.22476316534376</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>27.30003992254607</v>
+        <v>27.30003992254594</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.58186862109513</v>
+        <v>27.58186862109511</v>
       </c>
       <c r="C24">
-        <v>19.82632378832779</v>
+        <v>19.82632378832767</v>
       </c>
       <c r="D24">
-        <v>9.167591558419321</v>
+        <v>9.167591558419252</v>
       </c>
       <c r="E24">
-        <v>38.59219731292466</v>
+        <v>38.59219731292464</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>78.45529985961434</v>
+        <v>78.45529985961376</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>24.54996698062867</v>
+        <v>24.54996698062871</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.27667868797507</v>
+        <v>24.27667868797508</v>
       </c>
       <c r="C25">
-        <v>17.37516362376169</v>
+        <v>17.37516362376171</v>
       </c>
       <c r="D25">
-        <v>8.131743138273864</v>
+        <v>8.131743138273908</v>
       </c>
       <c r="E25">
         <v>33.88360967409647</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>70.18777335258667</v>
+        <v>70.18777335258662</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>21.62974368846335</v>
+        <v>21.62974368846334</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.79828226671513</v>
+        <v>21.79328012125862</v>
       </c>
       <c r="C2">
-        <v>15.56258706168913</v>
+        <v>15.55654546697474</v>
       </c>
       <c r="D2">
-        <v>7.343699269823692</v>
+        <v>7.343058078215191</v>
       </c>
       <c r="E2">
-        <v>30.39507955421008</v>
+        <v>30.3921535556616</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64.01034411962362</v>
+        <v>63.54020692968601</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>63.99532229636959</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>19.4451756787613</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.43961355258201</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.06473246032168</v>
+        <v>20.06099283411661</v>
       </c>
       <c r="C3">
-        <v>14.30589013590568</v>
+        <v>14.30122253757045</v>
       </c>
       <c r="D3">
-        <v>6.787206478447676</v>
+        <v>6.786740802837487</v>
       </c>
       <c r="E3">
-        <v>27.97144838419737</v>
+        <v>27.96935853316615</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.71808315503957</v>
+        <v>59.08363567472536</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>59.70630750414244</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.91892041231984</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.91464068398659</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.96743243069542</v>
+        <v>18.96439160601212</v>
       </c>
       <c r="C4">
-        <v>13.51461843683559</v>
+        <v>13.51072946071327</v>
       </c>
       <c r="D4">
-        <v>6.432808857554337</v>
+        <v>6.432436712614898</v>
       </c>
       <c r="E4">
-        <v>26.44303174434699</v>
+        <v>26.44137797412536</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.01995585428801</v>
+        <v>56.27256870594081</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>57.01018203155844</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.95328638898769</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.94972973349429</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.51123474585782</v>
+        <v>18.50846308613912</v>
       </c>
       <c r="C5">
-        <v>13.18652676166778</v>
+        <v>13.18294235352844</v>
       </c>
       <c r="D5">
-        <v>6.284988100401366</v>
+        <v>6.284651224811198</v>
       </c>
       <c r="E5">
-        <v>25.80871988976446</v>
+        <v>25.80722872284518</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.90362173375745</v>
+        <v>55.10699057021361</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>55.89467516877896</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>16.55188211905302</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.54860750857409</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.43491747284944</v>
+        <v>18.43218965452205</v>
       </c>
       <c r="C6">
-        <v>13.1316882090847</v>
+        <v>13.12815369675689</v>
       </c>
       <c r="D6">
-        <v>6.260231724205076</v>
+        <v>6.259900551560111</v>
       </c>
       <c r="E6">
-        <v>25.70266515448917</v>
+        <v>25.7012001818834</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.71721549202435</v>
+        <v>54.91220700924709</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>55.70840723584066</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.48473275095038</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.48150430160297</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.96131751072342</v>
+        <v>18.95828037513433</v>
       </c>
       <c r="C7">
-        <v>13.510217368069</v>
+        <v>13.50633254677231</v>
       </c>
       <c r="D7">
-        <v>6.430829315063892</v>
+        <v>6.430457656450611</v>
       </c>
       <c r="E7">
-        <v>26.43452524188938</v>
+        <v>26.43287372081002</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.00496982828284</v>
+        <v>56.25693186026596</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>56.9952071043008</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.94790578694924</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.94435298214276</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.20687612105982</v>
+        <v>21.20232762098939</v>
       </c>
       <c r="C8">
-        <v>15.13289878226611</v>
+        <v>15.1273468913586</v>
       </c>
       <c r="D8">
-        <v>7.154324794029335</v>
+        <v>7.1537475766382</v>
       </c>
       <c r="E8">
-        <v>29.56689575247539</v>
+        <v>29.56427710603315</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.54260312497322</v>
+        <v>62.01820487763386</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.52870485191152</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>18.92436059842617</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.91925641057397</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.39277809902971</v>
+        <v>25.38443197561581</v>
       </c>
       <c r="C9">
-        <v>18.19824412078819</v>
+        <v>18.18868416481505</v>
       </c>
       <c r="D9">
-        <v>8.483548227932676</v>
+        <v>8.482408892751236</v>
       </c>
       <c r="E9">
-        <v>35.46552387841025</v>
+        <v>35.46011253217064</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.97826019959017</v>
+        <v>72.80433298920009</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>72.95579611067177</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>22.61483929058461</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>22.60596256556594</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.41559453057877</v>
+        <v>28.40346684793911</v>
       </c>
       <c r="C10">
-        <v>20.45152808294116</v>
+        <v>20.43810742101876</v>
       </c>
       <c r="D10">
-        <v>9.425902129583173</v>
+        <v>9.424154822938668</v>
       </c>
       <c r="E10">
-        <v>39.79258581496543</v>
+        <v>39.78394334602077</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>80.5400445450892</v>
+        <v>80.57925591604999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>80.57925591604996</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>25.28815607323103</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.27560237015581</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.80596914131095</v>
+        <v>29.79171407729208</v>
       </c>
       <c r="C11">
-        <v>21.50097366908785</v>
+        <v>21.48541506382645</v>
       </c>
       <c r="D11">
-        <v>9.853773085643855</v>
+        <v>9.851667546493276</v>
       </c>
       <c r="E11">
-        <v>41.80806457075661</v>
+        <v>41.79742605825582</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>84.01213597003665</v>
+        <v>84.14054076224856</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>84.14054076232831</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>26.52085406413544</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.5062499496187</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.33796812635548</v>
+        <v>30.32282126314331</v>
       </c>
       <c r="C12">
-        <v>21.90488706759969</v>
+        <v>21.88843775184603</v>
       </c>
       <c r="D12">
-        <v>10.01648445460893</v>
+        <v>10.014225791372</v>
       </c>
       <c r="E12">
-        <v>42.58420299069029</v>
+        <v>42.57269158057457</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>85.33855386525752</v>
+        <v>85.49977424175582</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>85.49977424175584</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>26.99310595340529</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.97764503192003</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.22308158832471</v>
+        <v>30.20813123319713</v>
       </c>
       <c r="C13">
-        <v>21.81754666723453</v>
+        <v>21.80129336640999</v>
       </c>
       <c r="D13">
-        <v>9.98139505349593</v>
+        <v>9.979170271957059</v>
       </c>
       <c r="E13">
-        <v>42.41634685164887</v>
+        <v>42.40502958279133</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>85.05222732877026</v>
+        <v>85.20642036679536</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>85.20642036679533</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>26.89109330452107</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.87582105884235</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.84960339166959</v>
+        <v>29.83527689964508</v>
       </c>
       <c r="C14">
-        <v>21.53405192631362</v>
+        <v>21.51842186932928</v>
       </c>
       <c r="D14">
-        <v>9.86714002314856</v>
+        <v>9.865022280826217</v>
       </c>
       <c r="E14">
-        <v>41.87161455563525</v>
+        <v>41.86090690352674</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>84.12097830051559</v>
+        <v>84.25210115576057</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>84.25210115576058</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>26.55957526868626</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>26.54490247522244</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.62167227439625</v>
+        <v>29.60771561420204</v>
       </c>
       <c r="C15">
-        <v>21.36136017697895</v>
+        <v>21.34610029211846</v>
       </c>
       <c r="D15">
-        <v>9.797273732744786</v>
+        <v>9.795219056391927</v>
       </c>
       <c r="E15">
-        <v>41.53985860769819</v>
+        <v>41.52950746804458</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>83.55232846275356</v>
+        <v>83.66919996515988</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>83.66919996515992</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>26.3573327505699</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.3430156614587</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.32529250347021</v>
+        <v>28.31329360602037</v>
       </c>
       <c r="C16">
-        <v>20.38366717250884</v>
+        <v>20.37037660234605</v>
       </c>
       <c r="D16">
-        <v>9.397985704473237</v>
+        <v>9.396259742280092</v>
       </c>
       <c r="E16">
-        <v>39.66228889003582</v>
+        <v>39.65376326144507</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>80.31432038911564</v>
+        <v>80.34755968423933</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>80.3475596842913</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>25.20816742587269</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>25.19573818845809</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.53590904785191</v>
+        <v>27.52499127247282</v>
       </c>
       <c r="C17">
-        <v>19.79194470372756</v>
+        <v>19.77974964437703</v>
       </c>
       <c r="D17">
-        <v>9.15331543699782</v>
+        <v>9.151766993428472</v>
       </c>
       <c r="E17">
-        <v>38.52619013841716</v>
+        <v>38.51862689030224</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>78.34033767237571</v>
+        <v>78.32039136756428</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>78.32039136756497</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>24.50929416280757</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>24.49791159024779</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.08306320873988</v>
+        <v>27.07273117583933</v>
       </c>
       <c r="C18">
-        <v>19.45367030335656</v>
+        <v>19.44207153866219</v>
       </c>
       <c r="D18">
-        <v>9.012450482452456</v>
+        <v>9.010996919678563</v>
       </c>
       <c r="E18">
-        <v>37.8766930668336</v>
+        <v>37.86963722691659</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>77.20744691832078</v>
+        <v>77.15616923017005</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>77.18093377612271</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>24.10864830586192</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>24.09783429119127</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.92985931530962</v>
+        <v>26.91972003737258</v>
       </c>
       <c r="C19">
-        <v>19.33941738740489</v>
+        <v>19.32801530991534</v>
       </c>
       <c r="D19">
-        <v>8.96471238388609</v>
+        <v>8.963289835462852</v>
       </c>
       <c r="E19">
-        <v>37.65731346932768</v>
+        <v>37.65042241784337</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.82412572509078</v>
+        <v>76.76210797260235</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>76.7979988709063</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>23.97314828283523</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.96252162086524</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.61979734876433</v>
+        <v>27.60876837816516</v>
       </c>
       <c r="C20">
-        <v>19.85470221421422</v>
+        <v>19.84239418449084</v>
       </c>
       <c r="D20">
-        <v>9.179370264602381</v>
+        <v>9.177803703766585</v>
       </c>
       <c r="E20">
-        <v>38.64668320858273</v>
+        <v>38.63902251504384</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>78.55017133582571</v>
+        <v>78.53596225779536</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>78.53596225779552</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>24.58353430292412</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.57204392148394</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.95912115008516</v>
+        <v>29.94461405066771</v>
       </c>
       <c r="C21">
-        <v>21.61711463884026</v>
+        <v>21.60130400251809</v>
       </c>
       <c r="D21">
-        <v>9.900672976355187</v>
+        <v>9.898524329838528</v>
       </c>
       <c r="E21">
-        <v>42.03120311281937</v>
+        <v>42.02032003529162</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>84.3941237669523</v>
+        <v>84.53204764753633</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>84.53204764753634</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>26.65677159965598</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>26.6419251926553</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.52264477389858</v>
+        <v>31.50533581713621</v>
       </c>
       <c r="C22">
-        <v>22.8092984099932</v>
+        <v>22.79070100267906</v>
       </c>
       <c r="D22">
-        <v>10.37670941694247</v>
+        <v>10.37407303626872</v>
       </c>
       <c r="E22">
-        <v>44.32352356430282</v>
+        <v>44.30981032815864</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>88.37989303093121</v>
+        <v>88.51861769541381</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>88.51861769573632</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>28.04599028755139</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>28.02845746484083</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.68352740440272</v>
+        <v>30.66777596194791</v>
       </c>
       <c r="C23">
-        <v>22.16797744711839</v>
+        <v>22.15092592397875</v>
       </c>
       <c r="D23">
-        <v>10.12186383108768</v>
+        <v>10.11950044350976</v>
       </c>
       <c r="E23">
-        <v>43.08993187420349</v>
+        <v>43.07781685665872</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>86.22476316534376</v>
+        <v>86.381523153429</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>86.3815231534319</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>27.30003992254594</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>27.28399892406258</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.58186862109511</v>
+        <v>27.57089003154368</v>
       </c>
       <c r="C24">
-        <v>19.82632378832767</v>
+        <v>19.8140669351912</v>
       </c>
       <c r="D24">
-        <v>9.167591558419252</v>
+        <v>9.166033210372788</v>
       </c>
       <c r="E24">
-        <v>38.59219731292464</v>
+        <v>38.58458081464286</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>78.45529985961376</v>
+        <v>78.43849934239266</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>78.43849934239259</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>24.54996698062871</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.53852544120223</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.27667868797508</v>
+        <v>24.2694881513389</v>
       </c>
       <c r="C25">
-        <v>17.37516362376171</v>
+        <v>17.36680488748352</v>
       </c>
       <c r="D25">
-        <v>8.131743138273908</v>
+        <v>8.13078077193858</v>
       </c>
       <c r="E25">
-        <v>33.88360967409647</v>
+        <v>33.87909912216767</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>70.18777335258662</v>
+        <v>69.92746200339641</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>70.16776125711448</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>21.62974368846334</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.62200304504199</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>17.65564412538993</v>
+      </c>
+      <c r="C2">
+        <v>6.005123801668749</v>
+      </c>
+      <c r="D2">
+        <v>9.355544100771464</v>
+      </c>
+      <c r="E2">
+        <v>8.467815494402593</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>50.54324879461996</v>
+      </c>
+      <c r="H2">
+        <v>15.70081915242434</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>4.862478390609098</v>
+      </c>
+      <c r="K2">
+        <v>13.38463039641514</v>
+      </c>
+      <c r="L2">
+        <v>8.015924582324212</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>16.84056515930954</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>16.812231781783</v>
+      </c>
+      <c r="C3">
+        <v>5.723185914663801</v>
+      </c>
+      <c r="D3">
+        <v>9.138348524524467</v>
+      </c>
+      <c r="E3">
+        <v>8.418608467012584</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>49.62349120849653</v>
+      </c>
+      <c r="H3">
+        <v>15.62787329928139</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>4.885827808267706</v>
+      </c>
+      <c r="K3">
+        <v>12.76405459501888</v>
+      </c>
+      <c r="L3">
+        <v>7.89678855025284</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>17.01181048064655</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>16.28420769506559</v>
+      </c>
+      <c r="C4">
+        <v>5.543442512188782</v>
+      </c>
+      <c r="D4">
+        <v>9.008133796820255</v>
+      </c>
+      <c r="E4">
+        <v>8.39214556801892</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>49.08804770211943</v>
+      </c>
+      <c r="H4">
+        <v>15.59172905446016</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>4.900672898216087</v>
+      </c>
+      <c r="K4">
+        <v>12.37623872071576</v>
+      </c>
+      <c r="L4">
+        <v>7.827018764490981</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>17.12126568102202</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>16.06676121730988</v>
+      </c>
+      <c r="C5">
+        <v>5.468555052352676</v>
+      </c>
+      <c r="D5">
+        <v>8.955905535548117</v>
+      </c>
+      <c r="E5">
+        <v>8.382288788189602</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>48.87717684552668</v>
+      </c>
+      <c r="H5">
+        <v>15.57910538371623</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4.906852894177429</v>
+      </c>
+      <c r="K5">
+        <v>12.21670737818213</v>
+      </c>
+      <c r="L5">
+        <v>7.799443889419823</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>17.1669418123886</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>16.03052633669034</v>
+      </c>
+      <c r="C6">
+        <v>5.456021926961128</v>
+      </c>
+      <c r="D6">
+        <v>8.947284824256938</v>
+      </c>
+      <c r="E6">
+        <v>8.380707590407884</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>48.84260299743328</v>
+      </c>
+      <c r="H6">
+        <v>15.57713439363781</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4.907887034898664</v>
+      </c>
+      <c r="K6">
+        <v>12.19013394846167</v>
+      </c>
+      <c r="L6">
+        <v>7.794917031775234</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>17.17459076059075</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>16.28128392802802</v>
+      </c>
+      <c r="C7">
+        <v>5.542439153984944</v>
+      </c>
+      <c r="D7">
+        <v>9.00742598717583</v>
+      </c>
+      <c r="E7">
+        <v>8.39200890394422</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>49.08517422002473</v>
+      </c>
+      <c r="H7">
+        <v>15.59155037288179</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>4.90075571199019</v>
+      </c>
+      <c r="K7">
+        <v>12.37409296790634</v>
+      </c>
+      <c r="L7">
+        <v>7.826643402422119</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>17.12187735756972</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>17.36710157275313</v>
+      </c>
+      <c r="C8">
+        <v>5.909301791402054</v>
+      </c>
+      <c r="D8">
+        <v>9.280029148674434</v>
+      </c>
+      <c r="E8">
+        <v>8.45006103466746</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>50.22001723504722</v>
+      </c>
+      <c r="H8">
+        <v>15.67383199898554</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4.870425373976639</v>
+      </c>
+      <c r="K8">
+        <v>13.17217994864641</v>
+      </c>
+      <c r="L8">
+        <v>7.974149363858136</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>16.89870850374509</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>19.40558962521211</v>
+      </c>
+      <c r="C9">
+        <v>6.575349526921456</v>
+      </c>
+      <c r="D9">
+        <v>9.837652390605525</v>
+      </c>
+      <c r="E9">
+        <v>8.594359976804606</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>52.67922362006596</v>
+      </c>
+      <c r="H9">
+        <v>15.90686166152631</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>4.814855378982057</v>
+      </c>
+      <c r="K9">
+        <v>14.67580147994036</v>
+      </c>
+      <c r="L9">
+        <v>8.289899122547556</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>16.49589573345994</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>20.8374714150885</v>
+      </c>
+      <c r="C10">
+        <v>7.031769230674906</v>
+      </c>
+      <c r="D10">
+        <v>10.25905330641376</v>
+      </c>
+      <c r="E10">
+        <v>8.71990248998287</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>54.63045718235679</v>
+      </c>
+      <c r="H10">
+        <v>16.12605697516848</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4.776222657517109</v>
+      </c>
+      <c r="K10">
+        <v>15.73512439612359</v>
+      </c>
+      <c r="L10">
+        <v>8.537608111454603</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>16.22223384783459</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>21.47320390122318</v>
+      </c>
+      <c r="C11">
+        <v>7.232332081301168</v>
+      </c>
+      <c r="D11">
+        <v>10.45289199352647</v>
+      </c>
+      <c r="E11">
+        <v>8.781462132851066</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>55.550034948769</v>
+      </c>
+      <c r="H11">
+        <v>16.23714417199255</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>4.759079533611984</v>
+      </c>
+      <c r="K11">
+        <v>16.20611128548209</v>
+      </c>
+      <c r="L11">
+        <v>8.653639013101461</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>16.1028800010295</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>21.71162384814941</v>
+      </c>
+      <c r="C12">
+        <v>7.307279258689162</v>
+      </c>
+      <c r="D12">
+        <v>10.5265743125015</v>
+      </c>
+      <c r="E12">
+        <v>8.805430327444158</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>55.90291070779655</v>
+      </c>
+      <c r="H12">
+        <v>16.2809261689521</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4.752645907405144</v>
+      </c>
+      <c r="K12">
+        <v>16.38284054400076</v>
+      </c>
+      <c r="L12">
+        <v>8.698053760993536</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>16.05845429788664</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>21.66037968778123</v>
+      </c>
+      <c r="C13">
+        <v>7.291182288288291</v>
+      </c>
+      <c r="D13">
+        <v>10.510693435786</v>
+      </c>
+      <c r="E13">
+        <v>8.800238851508032</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>55.8267045441518</v>
+      </c>
+      <c r="H13">
+        <v>16.27141931634644</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4.754028984863179</v>
+      </c>
+      <c r="K13">
+        <v>16.34485153511636</v>
+      </c>
+      <c r="L13">
+        <v>8.688467114292544</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>16.06798730063852</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>21.49286558854845</v>
+      </c>
+      <c r="C14">
+        <v>7.238517997928834</v>
+      </c>
+      <c r="D14">
+        <v>10.4589484108705</v>
+      </c>
+      <c r="E14">
+        <v>8.783420744793613</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>55.57897261046342</v>
+      </c>
+      <c r="H14">
+        <v>16.24071128792155</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4.758549094167158</v>
+      </c>
+      <c r="K14">
+        <v>16.22068366470159</v>
+      </c>
+      <c r="L14">
+        <v>8.657283513040555</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>16.09920941384473</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>21.38995500079524</v>
+      </c>
+      <c r="C15">
+        <v>7.206129702193888</v>
+      </c>
+      <c r="D15">
+        <v>10.427288811661</v>
+      </c>
+      <c r="E15">
+        <v>8.773205236125419</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>55.42783753197078</v>
+      </c>
+      <c r="H15">
+        <v>16.22212759918821</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4.761325237929045</v>
+      </c>
+      <c r="K15">
+        <v>16.14441466651757</v>
+      </c>
+      <c r="L15">
+        <v>8.638244591266481</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>16.11843532541545</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>20.79560340202314</v>
+      </c>
+      <c r="C16">
+        <v>7.018520876680774</v>
+      </c>
+      <c r="D16">
+        <v>10.24642602582376</v>
+      </c>
+      <c r="E16">
+        <v>8.715970399299675</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>54.57100790574371</v>
+      </c>
+      <c r="H16">
+        <v>16.11903281904263</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4.777351349918342</v>
+      </c>
+      <c r="K16">
+        <v>15.70411955631945</v>
+      </c>
+      <c r="L16">
+        <v>8.53009209082421</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>16.23013990407845</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>20.42692227134808</v>
+      </c>
+      <c r="C17">
+        <v>6.901627425087434</v>
+      </c>
+      <c r="D17">
+        <v>10.13599892267764</v>
+      </c>
+      <c r="E17">
+        <v>8.682010231769265</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>54.0535877724961</v>
+      </c>
+      <c r="H17">
+        <v>16.05875674825012</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4.787290587742773</v>
+      </c>
+      <c r="K17">
+        <v>15.4311722992914</v>
+      </c>
+      <c r="L17">
+        <v>8.464597001741987</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>16.30000393846586</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>20.21339662432574</v>
+      </c>
+      <c r="C18">
+        <v>6.83372713622438</v>
+      </c>
+      <c r="D18">
+        <v>10.07268701900107</v>
+      </c>
+      <c r="E18">
+        <v>8.662895015851259</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>53.7589842855024</v>
+      </c>
+      <c r="H18">
+        <v>16.02515318716837</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>4.793048200348956</v>
+      </c>
+      <c r="K18">
+        <v>15.27315548471579</v>
+      </c>
+      <c r="L18">
+        <v>8.427241147952795</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>16.34066908804517</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>20.14085071839549</v>
+      </c>
+      <c r="C19">
+        <v>6.810622512368293</v>
+      </c>
+      <c r="D19">
+        <v>10.05128649984163</v>
+      </c>
+      <c r="E19">
+        <v>8.656494179400614</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>53.65975099114956</v>
+      </c>
+      <c r="H19">
+        <v>16.01395623239016</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>4.795004754736413</v>
+      </c>
+      <c r="K19">
+        <v>15.21947981036541</v>
+      </c>
+      <c r="L19">
+        <v>8.414647420441691</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>16.3545193572409</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>20.46632176060267</v>
+      </c>
+      <c r="C20">
+        <v>6.914139807425314</v>
+      </c>
+      <c r="D20">
+        <v>10.14773330755858</v>
+      </c>
+      <c r="E20">
+        <v>8.685581990839374</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>54.10835690357481</v>
+      </c>
+      <c r="H20">
+        <v>16.06506237885257</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>4.786228340830209</v>
+      </c>
+      <c r="K20">
+        <v>15.46033454311234</v>
+      </c>
+      <c r="L20">
+        <v>8.471536488318588</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>16.29251677256417</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>21.54213183709153</v>
+      </c>
+      <c r="C21">
+        <v>7.254013811714133</v>
+      </c>
+      <c r="D21">
+        <v>10.47413977478651</v>
+      </c>
+      <c r="E21">
+        <v>8.78834266235847</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>55.65161066460947</v>
+      </c>
+      <c r="H21">
+        <v>16.24968376248506</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>4.757219884055211</v>
+      </c>
+      <c r="K21">
+        <v>16.25719914457264</v>
+      </c>
+      <c r="L21">
+        <v>8.666429990577999</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>16.09001751116029</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>22.23171571519447</v>
+      </c>
+      <c r="C22">
+        <v>7.470314510500012</v>
+      </c>
+      <c r="D22">
+        <v>10.68908828690418</v>
+      </c>
+      <c r="E22">
+        <v>8.859340207774293</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>56.68737503458347</v>
+      </c>
+      <c r="H22">
+        <v>16.3803845422923</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>4.738597825657584</v>
+      </c>
+      <c r="K22">
+        <v>16.76852710822044</v>
+      </c>
+      <c r="L22">
+        <v>8.796580491480697</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>15.96218580098442</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>21.86492304631931</v>
+      </c>
+      <c r="C23">
+        <v>7.355397353349227</v>
+      </c>
+      <c r="D23">
+        <v>10.57422517261094</v>
+      </c>
+      <c r="E23">
+        <v>8.821090471153111</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>56.13205746464534</v>
+      </c>
+      <c r="H23">
+        <v>16.30968105319311</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>4.748507328790287</v>
+      </c>
+      <c r="K23">
+        <v>16.49649977243785</v>
+      </c>
+      <c r="L23">
+        <v>8.726863601129246</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>16.02998681187217</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>20.44851412343619</v>
+      </c>
+      <c r="C24">
+        <v>6.908485130386584</v>
+      </c>
+      <c r="D24">
+        <v>10.14242764761918</v>
+      </c>
+      <c r="E24">
+        <v>8.683965926091435</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>54.08358684942282</v>
+      </c>
+      <c r="H24">
+        <v>16.0622083389004</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>4.78670844714903</v>
+      </c>
+      <c r="K24">
+        <v>15.44715370136328</v>
+      </c>
+      <c r="L24">
+        <v>8.468398217369604</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>16.29590016717358</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>18.86508201619344</v>
+      </c>
+      <c r="C25">
+        <v>6.400948924737003</v>
+      </c>
+      <c r="D25">
+        <v>9.684586591414549</v>
+      </c>
+      <c r="E25">
+        <v>8.551963058903594</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>51.98871801259979</v>
+      </c>
+      <c r="H25">
+        <v>15.8357078900175</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4.829488860844442</v>
+      </c>
+      <c r="K25">
+        <v>14.27654398197158</v>
+      </c>
+      <c r="L25">
+        <v>8.20168887370707</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>16.60104275304973</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.65564412538993</v>
+        <v>21.50657928005314</v>
       </c>
       <c r="C2">
-        <v>6.005123801668749</v>
+        <v>4.807414580812353</v>
       </c>
       <c r="D2">
-        <v>9.355544100771464</v>
+        <v>13.75729255573399</v>
       </c>
       <c r="E2">
-        <v>8.467815494402593</v>
+        <v>13.95668731950672</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>50.54324879461996</v>
+        <v>65.79123157865165</v>
       </c>
       <c r="H2">
-        <v>15.70081915242434</v>
+        <v>23.54513563853234</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.862478390609098</v>
+        <v>8.419269586400425</v>
       </c>
       <c r="K2">
-        <v>13.38463039641514</v>
+        <v>16.9316321518543</v>
       </c>
       <c r="L2">
-        <v>8.015924582324212</v>
+        <v>12.97229514029918</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.84056515930954</v>
+        <v>25.01581923832431</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.812231781783</v>
+        <v>21.39576014710026</v>
       </c>
       <c r="C3">
-        <v>5.723185914663801</v>
+        <v>4.691420675132188</v>
       </c>
       <c r="D3">
-        <v>9.138348524524467</v>
+        <v>13.75464716235898</v>
       </c>
       <c r="E3">
-        <v>8.418608467012584</v>
+        <v>13.97717114422052</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>49.62349120849653</v>
+        <v>65.7531867498833</v>
       </c>
       <c r="H3">
-        <v>15.62787329928139</v>
+        <v>23.57791439706084</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.885827808267706</v>
+        <v>8.428455755299744</v>
       </c>
       <c r="K3">
-        <v>12.76405459501888</v>
+        <v>16.85892844362725</v>
       </c>
       <c r="L3">
-        <v>7.89678855025284</v>
+        <v>12.98376566720636</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.01181048064655</v>
+        <v>25.0680551662164</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.28420769506559</v>
+        <v>21.33248486776053</v>
       </c>
       <c r="C4">
-        <v>5.543442512188782</v>
+        <v>4.617721529949431</v>
       </c>
       <c r="D4">
-        <v>9.008133796820255</v>
+        <v>13.75544402981763</v>
       </c>
       <c r="E4">
-        <v>8.39214556801892</v>
+        <v>13.9914972851779</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>49.08804770211943</v>
+        <v>65.74272764591976</v>
       </c>
       <c r="H4">
-        <v>15.59172905446016</v>
+        <v>23.60138614943526</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.900672898216087</v>
+        <v>8.434410679509906</v>
       </c>
       <c r="K4">
-        <v>12.37623872071576</v>
+        <v>16.81797042859998</v>
       </c>
       <c r="L4">
-        <v>7.827018764490981</v>
+        <v>12.99271717315033</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.12126568102202</v>
+        <v>25.10205994411956</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.06676121730988</v>
+        <v>21.30792007885186</v>
       </c>
       <c r="C5">
-        <v>5.468555052352676</v>
+        <v>4.587085432176855</v>
       </c>
       <c r="D5">
-        <v>8.955905535548117</v>
+        <v>13.75637861274496</v>
       </c>
       <c r="E5">
-        <v>8.382288788189602</v>
+        <v>13.99777540605372</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>48.87717684552668</v>
+        <v>65.74171131898726</v>
       </c>
       <c r="H5">
-        <v>15.57910538371623</v>
+        <v>23.61179182100224</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.906852894177429</v>
+        <v>8.436916716071757</v>
       </c>
       <c r="K5">
-        <v>12.21670737818213</v>
+        <v>16.8022188183211</v>
       </c>
       <c r="L5">
-        <v>7.799443889419823</v>
+        <v>12.99684527565888</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.1669418123886</v>
+        <v>25.11640348161173</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.03052633669034</v>
+        <v>21.30391541433221</v>
       </c>
       <c r="C6">
-        <v>5.456021926961128</v>
+        <v>4.581962522076659</v>
       </c>
       <c r="D6">
-        <v>8.947284824256938</v>
+        <v>13.75657065809027</v>
       </c>
       <c r="E6">
-        <v>8.380707590407884</v>
+        <v>13.9988444725439</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>48.84260299743328</v>
+        <v>65.74173861822989</v>
       </c>
       <c r="H6">
-        <v>15.57713439363781</v>
+        <v>23.61357043683952</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.907887034898664</v>
+        <v>8.43733764192295</v>
       </c>
       <c r="K6">
-        <v>12.19013394846167</v>
+        <v>16.79966035597322</v>
       </c>
       <c r="L6">
-        <v>7.794917031775234</v>
+        <v>12.99755976124853</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.17459076059075</v>
+        <v>25.11881460428313</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.28128392802802</v>
+        <v>21.33214861013067</v>
       </c>
       <c r="C7">
-        <v>5.542439153984944</v>
+        <v>4.617310775084998</v>
       </c>
       <c r="D7">
-        <v>9.00742598717583</v>
+        <v>13.75545416348768</v>
       </c>
       <c r="E7">
-        <v>8.39200890394422</v>
+        <v>13.99158017177649</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>49.08517422002473</v>
+        <v>65.74270079611188</v>
       </c>
       <c r="H7">
-        <v>15.59155037288179</v>
+        <v>23.6015230806214</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.90075571199019</v>
+        <v>8.434444155146933</v>
       </c>
       <c r="K7">
-        <v>12.37409296790634</v>
+        <v>16.81775417799343</v>
       </c>
       <c r="L7">
-        <v>7.826643402422119</v>
+        <v>12.99277090108921</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.12187735756972</v>
+        <v>25.102251416288</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.36710157275313</v>
+        <v>21.46739260611444</v>
       </c>
       <c r="C8">
-        <v>5.909301791402054</v>
+        <v>4.767945897692545</v>
       </c>
       <c r="D8">
-        <v>9.280029148674434</v>
+        <v>13.75587861192405</v>
       </c>
       <c r="E8">
-        <v>8.45006103466746</v>
+        <v>13.96338733137593</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>50.22001723504722</v>
+        <v>65.77543786913768</v>
       </c>
       <c r="H8">
-        <v>15.67383199898554</v>
+        <v>23.55574312945846</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.870425373976639</v>
+        <v>8.422371838931801</v>
       </c>
       <c r="K8">
-        <v>13.17217994864641</v>
+        <v>16.90580789694627</v>
       </c>
       <c r="L8">
-        <v>7.974149363858136</v>
+        <v>12.9758543044733</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.89870850374509</v>
+        <v>25.03342960364078</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.40558962521211</v>
+        <v>21.76941638232121</v>
       </c>
       <c r="C9">
-        <v>6.575349526921456</v>
+        <v>5.04286722200214</v>
       </c>
       <c r="D9">
-        <v>9.837652390605525</v>
+        <v>13.77586652844018</v>
       </c>
       <c r="E9">
-        <v>8.594359976804606</v>
+        <v>13.92196483305288</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52.67922362006596</v>
+        <v>65.94184263097341</v>
       </c>
       <c r="H9">
-        <v>15.90686166152631</v>
+        <v>23.49253388749074</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.814855378982057</v>
+        <v>8.401182617566413</v>
       </c>
       <c r="K9">
-        <v>14.67580147994036</v>
+        <v>17.10706609295741</v>
       </c>
       <c r="L9">
-        <v>8.289899122547556</v>
+        <v>12.95780572296325</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.49589573345994</v>
+        <v>24.91377131072759</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.8374714150885</v>
+        <v>22.01227583409996</v>
       </c>
       <c r="C10">
-        <v>7.031769230674906</v>
+        <v>5.23139212290034</v>
       </c>
       <c r="D10">
-        <v>10.25905330641376</v>
+        <v>13.80214111240441</v>
       </c>
       <c r="E10">
-        <v>8.71990248998287</v>
+        <v>13.89996388817684</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.63045718235679</v>
+        <v>66.12610089388812</v>
       </c>
       <c r="H10">
-        <v>16.12605697516848</v>
+        <v>23.46231354194726</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.776222657517109</v>
+        <v>8.387113539256019</v>
       </c>
       <c r="K10">
-        <v>15.73512439612359</v>
+        <v>17.27143411428361</v>
       </c>
       <c r="L10">
-        <v>8.537608111454603</v>
+        <v>12.95373698822018</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.22223384783459</v>
+        <v>24.83514958652532</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.47320390122318</v>
+        <v>22.12696572881102</v>
       </c>
       <c r="C11">
-        <v>7.232332081301168</v>
+        <v>5.314055417169343</v>
       </c>
       <c r="D11">
-        <v>10.45289199352647</v>
+        <v>13.81658607318982</v>
       </c>
       <c r="E11">
-        <v>8.781462132851066</v>
+        <v>13.8917811912249</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>55.550034948769</v>
+        <v>66.22328232606772</v>
       </c>
       <c r="H11">
-        <v>16.23714417199255</v>
+        <v>23.45209053885017</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.759079533611984</v>
+        <v>8.381035166462162</v>
       </c>
       <c r="K11">
-        <v>16.20611128548209</v>
+        <v>17.3495747245437</v>
       </c>
       <c r="L11">
-        <v>8.653639013101461</v>
+        <v>12.95387367001959</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.1028800010295</v>
+        <v>24.80139249511497</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.71162384814941</v>
+        <v>22.17097054974226</v>
       </c>
       <c r="C12">
-        <v>7.307279258689162</v>
+        <v>5.344899163478864</v>
       </c>
       <c r="D12">
-        <v>10.5265743125015</v>
+        <v>13.82241181939559</v>
       </c>
       <c r="E12">
-        <v>8.805430327444158</v>
+        <v>13.88894464944225</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>55.90291070779655</v>
+        <v>66.26199128626953</v>
       </c>
       <c r="H12">
-        <v>16.2809261689521</v>
+        <v>23.44872614922999</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.752645907405144</v>
+        <v>8.378779448396502</v>
       </c>
       <c r="K12">
-        <v>16.38284054400076</v>
+        <v>17.37962913750922</v>
       </c>
       <c r="L12">
-        <v>8.698053760993536</v>
+        <v>12.95421032596751</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.05845429788664</v>
+        <v>24.78889785672797</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.66037968778123</v>
+        <v>22.16146829550527</v>
       </c>
       <c r="C13">
-        <v>7.291182288288291</v>
+        <v>5.338277030426429</v>
       </c>
       <c r="D13">
-        <v>10.510693435786</v>
+        <v>13.82114136409126</v>
       </c>
       <c r="E13">
-        <v>8.800238851508032</v>
+        <v>13.88954390170132</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>55.8267045441518</v>
+        <v>66.25356996616917</v>
       </c>
       <c r="H13">
-        <v>16.27141931634644</v>
+        <v>23.44942818970573</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.754028984863179</v>
+        <v>8.379263214151873</v>
       </c>
       <c r="K13">
-        <v>16.34485153511636</v>
+        <v>17.3731360634624</v>
       </c>
       <c r="L13">
-        <v>8.688467114292544</v>
+        <v>12.95412516594498</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.06798730063852</v>
+        <v>24.79157597768281</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.49286558854845</v>
+        <v>22.13057470675116</v>
       </c>
       <c r="C14">
-        <v>7.238517997928834</v>
+        <v>5.31660222422044</v>
       </c>
       <c r="D14">
-        <v>10.4589484108705</v>
+        <v>13.81705824733474</v>
       </c>
       <c r="E14">
-        <v>8.783420744793613</v>
+        <v>13.89154257777728</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>55.57897261046342</v>
+        <v>66.22642876803826</v>
       </c>
       <c r="H14">
-        <v>16.24071128792155</v>
+        <v>23.45180359092933</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.758549094167158</v>
+        <v>8.380848666004081</v>
       </c>
       <c r="K14">
-        <v>16.22068366470159</v>
+        <v>17.35203813309583</v>
       </c>
       <c r="L14">
-        <v>8.657283513040555</v>
+        <v>12.95389566277165</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.09920941384473</v>
+        <v>24.80035877490794</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.38995500079524</v>
+        <v>22.11172532543669</v>
       </c>
       <c r="C15">
-        <v>7.206129702193888</v>
+        <v>5.303265615564038</v>
       </c>
       <c r="D15">
-        <v>10.427288811661</v>
+        <v>13.81460346580405</v>
       </c>
       <c r="E15">
-        <v>8.773205236125419</v>
+        <v>13.89280093920677</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>55.42783753197078</v>
+        <v>66.21005212185067</v>
       </c>
       <c r="H15">
-        <v>16.22212759918821</v>
+        <v>23.4533245971013</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.761325237929045</v>
+        <v>8.38182578858491</v>
       </c>
       <c r="K15">
-        <v>16.14441466651757</v>
+        <v>17.33917488958328</v>
       </c>
       <c r="L15">
-        <v>8.638244591266481</v>
+        <v>12.95379215847522</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.11843532541545</v>
+        <v>24.8057760449181</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.79560340202314</v>
+        <v>22.00486267225882</v>
       </c>
       <c r="C16">
-        <v>7.018520876680774</v>
+        <v>5.225926356934089</v>
       </c>
       <c r="D16">
-        <v>10.24642602582376</v>
+        <v>13.80124703470532</v>
       </c>
       <c r="E16">
-        <v>8.715970399299675</v>
+        <v>13.90053534523948</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>54.57100790574371</v>
+        <v>66.12001766779967</v>
       </c>
       <c r="H16">
-        <v>16.11903281904263</v>
+        <v>23.46305256511199</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.777351349918342</v>
+        <v>8.387517229082327</v>
       </c>
       <c r="K16">
-        <v>15.70411955631945</v>
+        <v>17.26639352493245</v>
       </c>
       <c r="L16">
-        <v>8.53009209082421</v>
+        <v>12.95376797533488</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.23013990407845</v>
+        <v>24.83739607367831</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.42692227134808</v>
+        <v>21.94036265176475</v>
       </c>
       <c r="C17">
-        <v>6.901627425087434</v>
+        <v>5.177677753887626</v>
       </c>
       <c r="D17">
-        <v>10.13599892267764</v>
+        <v>13.79368988549821</v>
       </c>
       <c r="E17">
-        <v>8.682010231769265</v>
+        <v>13.90574743310722</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>54.0535877724961</v>
+        <v>66.06819808486361</v>
       </c>
       <c r="H17">
-        <v>16.05875674825012</v>
+        <v>23.4699231066779</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.787290587742773</v>
+        <v>8.391090977462452</v>
       </c>
       <c r="K17">
-        <v>15.4311722992914</v>
+        <v>17.22259325587661</v>
       </c>
       <c r="L17">
-        <v>8.464597001741987</v>
+        <v>12.95426159110834</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.30000393846586</v>
+        <v>24.85730805876794</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.21339662432574</v>
+        <v>21.90366234371505</v>
       </c>
       <c r="C18">
-        <v>6.83372713622438</v>
+        <v>5.149635600417581</v>
       </c>
       <c r="D18">
-        <v>10.07268701900107</v>
+        <v>13.78957799932096</v>
       </c>
       <c r="E18">
-        <v>8.662895015851259</v>
+        <v>13.90891715663363</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>53.7589842855024</v>
+        <v>66.03965137010344</v>
       </c>
       <c r="H18">
-        <v>16.02515318716837</v>
+        <v>23.47420659807681</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.793048200348956</v>
+        <v>8.393176798795231</v>
       </c>
       <c r="K18">
-        <v>15.27315548471579</v>
+        <v>17.1977188467322</v>
       </c>
       <c r="L18">
-        <v>8.427241147952795</v>
+        <v>12.95473264714067</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.34066908804517</v>
+        <v>24.86894995892607</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.14085071839549</v>
+        <v>21.89130561521703</v>
       </c>
       <c r="C19">
-        <v>6.810622512368293</v>
+        <v>5.140091494092871</v>
       </c>
       <c r="D19">
-        <v>10.05128649984163</v>
+        <v>13.78822618657657</v>
       </c>
       <c r="E19">
-        <v>8.656494179400614</v>
+        <v>13.91001990230507</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>53.65975099114956</v>
+        <v>66.03020245870253</v>
       </c>
       <c r="H19">
-        <v>16.01395623239016</v>
+        <v>23.47571388764975</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.795004754736413</v>
+        <v>8.393888232530433</v>
       </c>
       <c r="K19">
-        <v>15.21947981036541</v>
+        <v>17.18935207650011</v>
       </c>
       <c r="L19">
-        <v>8.414647420441691</v>
+        <v>12.95492430624936</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.3545193572409</v>
+        <v>24.87292418749619</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.46632176060267</v>
+        <v>21.94718778064583</v>
       </c>
       <c r="C20">
-        <v>6.914139807425314</v>
+        <v>5.182844102880972</v>
       </c>
       <c r="D20">
-        <v>10.14773330755858</v>
+        <v>13.7944700758533</v>
       </c>
       <c r="E20">
-        <v>8.685581990839374</v>
+        <v>13.90517481288498</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>54.10835690357481</v>
+        <v>66.07358420087796</v>
       </c>
       <c r="H20">
-        <v>16.06506237885257</v>
+        <v>23.46915739145734</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.786228340830209</v>
+        <v>8.390707412042016</v>
       </c>
       <c r="K20">
-        <v>15.46033454311234</v>
+        <v>17.22722306501134</v>
       </c>
       <c r="L20">
-        <v>8.471536488318588</v>
+        <v>12.95418968269001</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.29251677256417</v>
+        <v>24.85516883028039</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.54213183709153</v>
+        <v>22.13963357320689</v>
       </c>
       <c r="C21">
-        <v>7.254013811714133</v>
+        <v>5.322981200850279</v>
       </c>
       <c r="D21">
-        <v>10.47413977478651</v>
+        <v>13.81824792537739</v>
       </c>
       <c r="E21">
-        <v>8.78834266235847</v>
+        <v>13.89094840959034</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>55.65161066460947</v>
+        <v>66.23434911335262</v>
       </c>
       <c r="H21">
-        <v>16.24968376248506</v>
+        <v>23.45109212288263</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.757219884055211</v>
+        <v>8.380381732978767</v>
       </c>
       <c r="K21">
-        <v>16.25719914457264</v>
+        <v>17.35822267148638</v>
       </c>
       <c r="L21">
-        <v>8.666429990577999</v>
+        <v>12.95395534922205</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.09001751116029</v>
+        <v>24.79777122903445</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.23171571519447</v>
+        <v>22.26873991510469</v>
       </c>
       <c r="C22">
-        <v>7.470314510500012</v>
+        <v>5.411887776793231</v>
       </c>
       <c r="D22">
-        <v>10.68908828690418</v>
+        <v>13.83586028293368</v>
       </c>
       <c r="E22">
-        <v>8.859340207774293</v>
+        <v>13.88317792022594</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>56.68737503458347</v>
+        <v>66.35053487299649</v>
       </c>
       <c r="H22">
-        <v>16.3803845422923</v>
+        <v>23.44223959832733</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.738597825657584</v>
+        <v>8.373901494635941</v>
       </c>
       <c r="K22">
-        <v>16.76852710822044</v>
+        <v>17.4465346477816</v>
       </c>
       <c r="L22">
-        <v>8.796580491480697</v>
+        <v>12.95546229498651</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.96218580098442</v>
+        <v>24.76193967335527</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.86492304631931</v>
+        <v>22.19953919824316</v>
       </c>
       <c r="C23">
-        <v>7.355397353349227</v>
+        <v>5.364686157618782</v>
       </c>
       <c r="D23">
-        <v>10.57422517261094</v>
+        <v>13.82627159025583</v>
       </c>
       <c r="E23">
-        <v>8.821090471153111</v>
+        <v>13.88718559282155</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>56.13205746464534</v>
+        <v>66.28751194846699</v>
       </c>
       <c r="H23">
-        <v>16.30968105319311</v>
+        <v>23.44669407254936</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.748507328790287</v>
+        <v>8.377335657053321</v>
       </c>
       <c r="K23">
-        <v>16.49649977243785</v>
+        <v>17.39916105020643</v>
       </c>
       <c r="L23">
-        <v>8.726863601129246</v>
+        <v>12.9545064419347</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.02998681187217</v>
+        <v>24.78090994121421</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.44851412343619</v>
+        <v>21.94410094877542</v>
       </c>
       <c r="C24">
-        <v>6.908485130386584</v>
+        <v>5.180509340501701</v>
       </c>
       <c r="D24">
-        <v>10.14242764761918</v>
+        <v>13.79411662639662</v>
       </c>
       <c r="E24">
-        <v>8.683965926091435</v>
+        <v>13.9054331548774</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.08358684942282</v>
+        <v>66.07114525843141</v>
       </c>
       <c r="H24">
-        <v>16.0622083389004</v>
+        <v>23.46950253231774</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.78670844714903</v>
+        <v>8.39088072468455</v>
       </c>
       <c r="K24">
-        <v>15.44715370136328</v>
+        <v>17.22512897062995</v>
       </c>
       <c r="L24">
-        <v>8.468398217369604</v>
+        <v>12.95422160908817</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.29590016717358</v>
+        <v>24.8561353703496</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.86508201619344</v>
+        <v>21.68391669993355</v>
       </c>
       <c r="C25">
-        <v>6.400948924737003</v>
+        <v>4.970792074048349</v>
       </c>
       <c r="D25">
-        <v>9.684586591414549</v>
+        <v>13.76841650297942</v>
       </c>
       <c r="E25">
-        <v>8.551963058903594</v>
+        <v>13.93168836883224</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>51.98871801259979</v>
+        <v>65.88590768762538</v>
       </c>
       <c r="H25">
-        <v>15.8357078900175</v>
+        <v>23.50678666273539</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.829488860844442</v>
+        <v>8.406650536173826</v>
       </c>
       <c r="K25">
-        <v>14.27654398197158</v>
+        <v>17.04965113267352</v>
       </c>
       <c r="L25">
-        <v>8.20168887370707</v>
+        <v>12.96107168930366</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.60104275304973</v>
+        <v>24.94450782900689</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.50657928005314</v>
+        <v>17.65564412538987</v>
       </c>
       <c r="C2">
-        <v>4.807414580812353</v>
+        <v>6.00512380166875</v>
       </c>
       <c r="D2">
-        <v>13.75729255573399</v>
+        <v>9.355544100771491</v>
       </c>
       <c r="E2">
-        <v>13.95668731950672</v>
+        <v>8.467815494402489</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>65.79123157865165</v>
+        <v>50.54324879461953</v>
       </c>
       <c r="H2">
-        <v>23.54513563853234</v>
+        <v>15.70081915242424</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.419269586400425</v>
+        <v>4.862478390609</v>
       </c>
       <c r="K2">
-        <v>16.9316321518543</v>
+        <v>13.38463039641508</v>
       </c>
       <c r="L2">
-        <v>12.97229514029918</v>
+        <v>8.015924582324132</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.01581923832431</v>
+        <v>16.84056515930939</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.39576014710026</v>
+        <v>16.81223178178297</v>
       </c>
       <c r="C3">
-        <v>4.691420675132188</v>
+        <v>5.723185914663912</v>
       </c>
       <c r="D3">
-        <v>13.75464716235898</v>
+        <v>9.138348524524471</v>
       </c>
       <c r="E3">
-        <v>13.97717114422052</v>
+        <v>8.418608467012522</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>65.7531867498833</v>
+        <v>49.62349120849659</v>
       </c>
       <c r="H3">
-        <v>23.57791439706084</v>
+        <v>15.62787329928133</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.428455755299744</v>
+        <v>4.885827808267674</v>
       </c>
       <c r="K3">
-        <v>16.85892844362725</v>
+        <v>12.76405459501886</v>
       </c>
       <c r="L3">
-        <v>12.98376566720636</v>
+        <v>7.896788550252834</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>25.0680551662164</v>
+        <v>17.01181048064654</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.33248486776053</v>
+        <v>16.28420769506569</v>
       </c>
       <c r="C4">
-        <v>4.617721529949431</v>
+        <v>5.543442512189004</v>
       </c>
       <c r="D4">
-        <v>13.75544402981763</v>
+        <v>9.008133796820342</v>
       </c>
       <c r="E4">
-        <v>13.9914972851779</v>
+        <v>8.392145568018879</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>65.74272764591976</v>
+        <v>49.08804770211972</v>
       </c>
       <c r="H4">
-        <v>23.60138614943526</v>
+        <v>15.59172905446039</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.434410679509906</v>
+        <v>4.900672898216022</v>
       </c>
       <c r="K4">
-        <v>16.81797042859998</v>
+        <v>12.37623872071581</v>
       </c>
       <c r="L4">
-        <v>12.99271717315033</v>
+        <v>7.827018764490942</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>25.10205994411956</v>
+        <v>17.12126568102212</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.30792007885186</v>
+        <v>16.06676121730975</v>
       </c>
       <c r="C5">
-        <v>4.587085432176855</v>
+        <v>5.468555052352263</v>
       </c>
       <c r="D5">
-        <v>13.75637861274496</v>
+        <v>8.955905535547931</v>
       </c>
       <c r="E5">
-        <v>13.99777540605372</v>
+        <v>8.382288788189546</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>65.74171131898726</v>
+        <v>48.8771768455266</v>
       </c>
       <c r="H5">
-        <v>23.61179182100224</v>
+        <v>15.5791053837161</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.436916716071757</v>
+        <v>4.906852894177463</v>
       </c>
       <c r="K5">
-        <v>16.8022188183211</v>
+        <v>12.21670737818211</v>
       </c>
       <c r="L5">
-        <v>12.99684527565888</v>
+        <v>7.799443889419845</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>25.11640348161173</v>
+        <v>17.16694181238856</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.30391541433221</v>
+        <v>16.03052633669037</v>
       </c>
       <c r="C6">
-        <v>4.581962522076659</v>
+        <v>5.45602192696115</v>
       </c>
       <c r="D6">
-        <v>13.75657065809027</v>
+        <v>8.94728482425702</v>
       </c>
       <c r="E6">
-        <v>13.9988444725439</v>
+        <v>8.380707590407987</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>65.74173861822989</v>
+        <v>48.84260299743329</v>
       </c>
       <c r="H6">
-        <v>23.61357043683952</v>
+        <v>15.57713439363786</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.43733764192295</v>
+        <v>4.90788703489873</v>
       </c>
       <c r="K6">
-        <v>16.79966035597322</v>
+        <v>12.19013394846166</v>
       </c>
       <c r="L6">
-        <v>12.99755976124853</v>
+        <v>7.794917031775279</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>25.11881460428313</v>
+        <v>17.17459076059077</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.33214861013067</v>
+        <v>16.2812839280279</v>
       </c>
       <c r="C7">
-        <v>4.617310775084998</v>
+        <v>5.542439153985031</v>
       </c>
       <c r="D7">
-        <v>13.75545416348768</v>
+        <v>9.00742598717574</v>
       </c>
       <c r="E7">
-        <v>13.99158017177649</v>
+        <v>8.392008903944225</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>65.74270079611188</v>
+        <v>49.08517422002397</v>
       </c>
       <c r="H7">
-        <v>23.6015230806214</v>
+        <v>15.59155037288168</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.434444155146933</v>
+        <v>4.900755711990292</v>
       </c>
       <c r="K7">
-        <v>16.81775417799343</v>
+        <v>12.37409296790626</v>
       </c>
       <c r="L7">
-        <v>12.99277090108921</v>
+        <v>7.826643402422194</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>25.102251416288</v>
+        <v>17.12187735756956</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.46739260611444</v>
+        <v>17.36710157275311</v>
       </c>
       <c r="C8">
-        <v>4.767945897692545</v>
+        <v>5.909301791401707</v>
       </c>
       <c r="D8">
-        <v>13.75587861192405</v>
+        <v>9.280029148674297</v>
       </c>
       <c r="E8">
-        <v>13.96338733137593</v>
+        <v>8.450061034667369</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>65.77543786913768</v>
+        <v>50.22001723504725</v>
       </c>
       <c r="H8">
-        <v>23.55574312945846</v>
+        <v>15.67383199898551</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.422371838931801</v>
+        <v>4.870425373976708</v>
       </c>
       <c r="K8">
-        <v>16.90580789694627</v>
+        <v>13.17217994864644</v>
       </c>
       <c r="L8">
-        <v>12.9758543044733</v>
+        <v>7.974149363858148</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.03342960364078</v>
+        <v>16.89870850374501</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.76941638232121</v>
+        <v>19.40558962521206</v>
       </c>
       <c r="C9">
-        <v>5.04286722200214</v>
+        <v>6.57534952692144</v>
       </c>
       <c r="D9">
-        <v>13.77586652844018</v>
+        <v>9.837652390605509</v>
       </c>
       <c r="E9">
-        <v>13.92196483305288</v>
+        <v>8.594359976804606</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>65.94184263097341</v>
+        <v>52.67922362006566</v>
       </c>
       <c r="H9">
-        <v>23.49253388749074</v>
+        <v>15.90686166152618</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.401182617566413</v>
+        <v>4.814855378982023</v>
       </c>
       <c r="K9">
-        <v>17.10706609295741</v>
+        <v>14.67580147994035</v>
       </c>
       <c r="L9">
-        <v>12.95780572296325</v>
+        <v>8.289899122547553</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>24.91377131072759</v>
+        <v>16.49589573345985</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.01227583409996</v>
+        <v>20.83747141508851</v>
       </c>
       <c r="C10">
-        <v>5.23139212290034</v>
+        <v>7.031769230675011</v>
       </c>
       <c r="D10">
-        <v>13.80214111240441</v>
+        <v>10.25905330641378</v>
       </c>
       <c r="E10">
-        <v>13.89996388817684</v>
+        <v>8.719902489982873</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>66.12610089388812</v>
+        <v>54.63045718235699</v>
       </c>
       <c r="H10">
-        <v>23.46231354194726</v>
+        <v>16.12605697516851</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.387113539256019</v>
+        <v>4.77622265751708</v>
       </c>
       <c r="K10">
-        <v>17.27143411428361</v>
+        <v>15.73512439612361</v>
       </c>
       <c r="L10">
-        <v>12.95373698822018</v>
+        <v>8.53760811145461</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>24.83514958652532</v>
+        <v>16.22223384783461</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.12696572881102</v>
+        <v>21.47320390122319</v>
       </c>
       <c r="C11">
-        <v>5.314055417169343</v>
+        <v>7.232332081301156</v>
       </c>
       <c r="D11">
-        <v>13.81658607318982</v>
+        <v>10.4528919935266</v>
       </c>
       <c r="E11">
-        <v>13.8917811912249</v>
+        <v>8.781462132851116</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>66.22328232606772</v>
+        <v>55.55003494876885</v>
       </c>
       <c r="H11">
-        <v>23.45209053885017</v>
+        <v>16.23714417199254</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.381035166462162</v>
+        <v>4.759079533611954</v>
       </c>
       <c r="K11">
-        <v>17.3495747245437</v>
+        <v>16.20611128548209</v>
       </c>
       <c r="L11">
-        <v>12.95387367001959</v>
+        <v>8.653639013101481</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>24.80139249511497</v>
+        <v>16.1028800010294</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.17097054974226</v>
+        <v>21.71162384814942</v>
       </c>
       <c r="C12">
-        <v>5.344899163478864</v>
+        <v>7.307279258689234</v>
       </c>
       <c r="D12">
-        <v>13.82241181939559</v>
+        <v>10.52657431250146</v>
       </c>
       <c r="E12">
-        <v>13.88894464944225</v>
+        <v>8.805430327444158</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>66.26199128626953</v>
+        <v>55.90291070779642</v>
       </c>
       <c r="H12">
-        <v>23.44872614922999</v>
+        <v>16.28092616895205</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.378779448396502</v>
+        <v>4.752645907405177</v>
       </c>
       <c r="K12">
-        <v>17.37962913750922</v>
+        <v>16.38284054400076</v>
       </c>
       <c r="L12">
-        <v>12.95421032596751</v>
+        <v>8.698053760993515</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>24.78889785672797</v>
+        <v>16.05845429788662</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.16146829550527</v>
+        <v>21.66037968778121</v>
       </c>
       <c r="C13">
-        <v>5.338277030426429</v>
+        <v>7.29118228828802</v>
       </c>
       <c r="D13">
-        <v>13.82114136409126</v>
+        <v>10.51069343578593</v>
       </c>
       <c r="E13">
-        <v>13.88954390170132</v>
+        <v>8.800238851507972</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>66.25356996616917</v>
+        <v>55.82670454415187</v>
       </c>
       <c r="H13">
-        <v>23.44942818970573</v>
+        <v>16.27141931634646</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.379263214151873</v>
+        <v>4.75402898486318</v>
       </c>
       <c r="K13">
-        <v>17.3731360634624</v>
+        <v>16.34485153511637</v>
       </c>
       <c r="L13">
-        <v>12.95412516594498</v>
+        <v>8.688467114292569</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>24.79157597768281</v>
+        <v>16.06798730063853</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.13057470675116</v>
+        <v>21.49286558854844</v>
       </c>
       <c r="C14">
-        <v>5.31660222422044</v>
+        <v>7.238517997928725</v>
       </c>
       <c r="D14">
-        <v>13.81705824733474</v>
+        <v>10.45894841087048</v>
       </c>
       <c r="E14">
-        <v>13.89154257777728</v>
+        <v>8.783420744793483</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>66.22642876803826</v>
+        <v>55.57897261046326</v>
       </c>
       <c r="H14">
-        <v>23.45180359092933</v>
+        <v>16.24071128792155</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.380848666004081</v>
+        <v>4.758549094167028</v>
       </c>
       <c r="K14">
-        <v>17.35203813309583</v>
+        <v>16.22068366470156</v>
       </c>
       <c r="L14">
-        <v>12.95389566277165</v>
+        <v>8.657283513040488</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>24.80035877490794</v>
+        <v>16.09920941384473</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.11172532543669</v>
+        <v>21.3899550007952</v>
       </c>
       <c r="C15">
-        <v>5.303265615564038</v>
+        <v>7.206129702193875</v>
       </c>
       <c r="D15">
-        <v>13.81460346580405</v>
+        <v>10.42728881166102</v>
       </c>
       <c r="E15">
-        <v>13.89280093920677</v>
+        <v>8.773205236125513</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>66.21005212185067</v>
+        <v>55.42783753197056</v>
       </c>
       <c r="H15">
-        <v>23.4533245971013</v>
+        <v>16.22212759918818</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.38182578858491</v>
+        <v>4.761325237929109</v>
       </c>
       <c r="K15">
-        <v>17.33917488958328</v>
+        <v>16.14441466651754</v>
       </c>
       <c r="L15">
-        <v>12.95379215847522</v>
+        <v>8.638244591266513</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>24.8057760449181</v>
+        <v>16.11843532541542</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.00486267225882</v>
+        <v>20.7956034020231</v>
       </c>
       <c r="C16">
-        <v>5.225926356934089</v>
+        <v>7.018520876680771</v>
       </c>
       <c r="D16">
-        <v>13.80124703470532</v>
+        <v>10.24642602582367</v>
       </c>
       <c r="E16">
-        <v>13.90053534523948</v>
+        <v>8.71597039929949</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>66.12001766779967</v>
+        <v>54.57100790574321</v>
       </c>
       <c r="H16">
-        <v>23.46305256511199</v>
+        <v>16.11903281904238</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.387517229082327</v>
+        <v>4.777351349918371</v>
       </c>
       <c r="K16">
-        <v>17.26639352493245</v>
+        <v>15.70411955631941</v>
       </c>
       <c r="L16">
-        <v>12.95376797533488</v>
+        <v>8.530092090824148</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>24.83739607367831</v>
+        <v>16.23013990407826</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.94036265176475</v>
+        <v>20.42692227134807</v>
       </c>
       <c r="C17">
-        <v>5.177677753887626</v>
+        <v>6.901627425087423</v>
       </c>
       <c r="D17">
-        <v>13.79368988549821</v>
+        <v>10.13599892267766</v>
       </c>
       <c r="E17">
-        <v>13.90574743310722</v>
+        <v>8.682010231769215</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>66.06819808486361</v>
+        <v>54.05358777249592</v>
       </c>
       <c r="H17">
-        <v>23.4699231066779</v>
+        <v>16.05875674825011</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.391090977462452</v>
+        <v>4.787290587742704</v>
       </c>
       <c r="K17">
-        <v>17.22259325587661</v>
+        <v>15.43117229929138</v>
       </c>
       <c r="L17">
-        <v>12.95426159110834</v>
+        <v>8.464597001741945</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>24.85730805876794</v>
+        <v>16.30000393846583</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.90366234371505</v>
+        <v>20.21339662432573</v>
       </c>
       <c r="C18">
-        <v>5.149635600417581</v>
+        <v>6.833727136224301</v>
       </c>
       <c r="D18">
-        <v>13.78957799932096</v>
+        <v>10.07268701900108</v>
       </c>
       <c r="E18">
-        <v>13.90891715663363</v>
+        <v>8.662895015851309</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>66.03965137010344</v>
+        <v>53.75898428550236</v>
       </c>
       <c r="H18">
-        <v>23.47420659807681</v>
+        <v>16.0251531871684</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.393176798795231</v>
+        <v>4.793048200348892</v>
       </c>
       <c r="K18">
-        <v>17.1977188467322</v>
+        <v>15.27315548471579</v>
       </c>
       <c r="L18">
-        <v>12.95473264714067</v>
+        <v>8.427241147952797</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>24.86894995892607</v>
+        <v>16.34066908804518</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.89130561521703</v>
+        <v>20.14085071839549</v>
       </c>
       <c r="C19">
-        <v>5.140091494092871</v>
+        <v>6.810622512368409</v>
       </c>
       <c r="D19">
-        <v>13.78822618657657</v>
+        <v>10.05128649984157</v>
       </c>
       <c r="E19">
-        <v>13.91001990230507</v>
+        <v>8.656494179400621</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>66.03020245870253</v>
+        <v>53.65975099114969</v>
       </c>
       <c r="H19">
-        <v>23.47571388764975</v>
+        <v>16.01395623239016</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.393888232530433</v>
+        <v>4.795004754736412</v>
       </c>
       <c r="K19">
-        <v>17.18935207650011</v>
+        <v>15.21947981036542</v>
       </c>
       <c r="L19">
-        <v>12.95492430624936</v>
+        <v>8.414647420441703</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>24.87292418749619</v>
+        <v>16.35451935724096</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.94718778064583</v>
+        <v>20.46632176060267</v>
       </c>
       <c r="C20">
-        <v>5.182844102880972</v>
+        <v>6.914139807425121</v>
       </c>
       <c r="D20">
-        <v>13.7944700758533</v>
+        <v>10.1477333075585</v>
       </c>
       <c r="E20">
-        <v>13.90517481288498</v>
+        <v>8.68558199083933</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>66.07358420087796</v>
+        <v>54.10835690357501</v>
       </c>
       <c r="H20">
-        <v>23.46915739145734</v>
+        <v>16.06506237885267</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.390707412042016</v>
+        <v>4.78622834083021</v>
       </c>
       <c r="K20">
-        <v>17.22722306501134</v>
+        <v>15.46033454311236</v>
       </c>
       <c r="L20">
-        <v>12.95418968269001</v>
+        <v>8.47153648831863</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>24.85516883028039</v>
+        <v>16.29251677256418</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.13963357320689</v>
+        <v>21.5421318370915</v>
       </c>
       <c r="C21">
-        <v>5.322981200850279</v>
+        <v>7.254013811714026</v>
       </c>
       <c r="D21">
-        <v>13.81824792537739</v>
+        <v>10.47413977478667</v>
       </c>
       <c r="E21">
-        <v>13.89094840959034</v>
+        <v>8.788342662358486</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>66.23434911335262</v>
+        <v>55.65161066460939</v>
       </c>
       <c r="H21">
-        <v>23.45109212288263</v>
+        <v>16.24968376248495</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.380381732978767</v>
+        <v>4.757219884055142</v>
       </c>
       <c r="K21">
-        <v>17.35822267148638</v>
+        <v>16.25719914457262</v>
       </c>
       <c r="L21">
-        <v>12.95395534922205</v>
+        <v>8.66642999057809</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>24.79777122903445</v>
+        <v>16.09001751116022</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.26873991510469</v>
+        <v>22.23171571519449</v>
       </c>
       <c r="C22">
-        <v>5.411887776793231</v>
+        <v>7.470314510499894</v>
       </c>
       <c r="D22">
-        <v>13.83586028293368</v>
+        <v>10.68908828690412</v>
       </c>
       <c r="E22">
-        <v>13.88317792022594</v>
+        <v>8.859340207774295</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>66.35053487299649</v>
+        <v>56.6873750345836</v>
       </c>
       <c r="H22">
-        <v>23.44223959832733</v>
+        <v>16.38038454229232</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.373901494635941</v>
+        <v>4.738597825657616</v>
       </c>
       <c r="K22">
-        <v>17.4465346477816</v>
+        <v>16.76852710822044</v>
       </c>
       <c r="L22">
-        <v>12.95546229498651</v>
+        <v>8.796580491480723</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>24.76193967335527</v>
+        <v>15.96218580098444</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.19953919824316</v>
+        <v>21.86492304631929</v>
       </c>
       <c r="C23">
-        <v>5.364686157618782</v>
+        <v>7.355397353349415</v>
       </c>
       <c r="D23">
-        <v>13.82627159025583</v>
+        <v>10.57422517261094</v>
       </c>
       <c r="E23">
-        <v>13.88718559282155</v>
+        <v>8.821090471153193</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>66.28751194846699</v>
+        <v>56.13205746464521</v>
       </c>
       <c r="H23">
-        <v>23.44669407254936</v>
+        <v>16.30968105319315</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.377335657053321</v>
+        <v>4.748507328790319</v>
       </c>
       <c r="K23">
-        <v>17.39916105020643</v>
+        <v>16.49649977243783</v>
       </c>
       <c r="L23">
-        <v>12.9545064419347</v>
+        <v>8.726863601129251</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>24.78090994121421</v>
+        <v>16.02998681187217</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.94410094877542</v>
+        <v>20.44851412343623</v>
       </c>
       <c r="C24">
-        <v>5.180509340501701</v>
+        <v>6.90848513038675</v>
       </c>
       <c r="D24">
-        <v>13.79411662639662</v>
+        <v>10.14242764761931</v>
       </c>
       <c r="E24">
-        <v>13.9054331548774</v>
+        <v>8.68396592609156</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>66.07114525843141</v>
+        <v>54.08358684942301</v>
       </c>
       <c r="H24">
-        <v>23.46950253231774</v>
+        <v>16.06220833890053</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.39088072468455</v>
+        <v>4.786708447149124</v>
       </c>
       <c r="K24">
-        <v>17.22512897062995</v>
+        <v>15.44715370136329</v>
       </c>
       <c r="L24">
-        <v>12.95422160908817</v>
+        <v>8.468398217369701</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>24.8561353703496</v>
+        <v>16.29590016717366</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.68391669993355</v>
+        <v>18.86508201619351</v>
       </c>
       <c r="C25">
-        <v>4.970792074048349</v>
+        <v>6.400948924737102</v>
       </c>
       <c r="D25">
-        <v>13.76841650297942</v>
+        <v>9.684586591414615</v>
       </c>
       <c r="E25">
-        <v>13.93168836883224</v>
+        <v>8.551963058903736</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>65.88590768762538</v>
+        <v>51.98871801260021</v>
       </c>
       <c r="H25">
-        <v>23.50678666273539</v>
+        <v>15.83570789001766</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.406650536173826</v>
+        <v>4.829488860844442</v>
       </c>
       <c r="K25">
-        <v>17.04965113267352</v>
+        <v>14.27654398197162</v>
       </c>
       <c r="L25">
-        <v>12.96107168930366</v>
+        <v>8.201688873707104</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>24.94450782900689</v>
+        <v>16.60104275304993</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.65564412538987</v>
+        <v>20.2466707941258</v>
       </c>
       <c r="C2">
-        <v>6.00512380166875</v>
+        <v>17.49735271674184</v>
       </c>
       <c r="D2">
-        <v>9.355544100771491</v>
+        <v>10.38187400871629</v>
       </c>
       <c r="E2">
-        <v>8.467815494402489</v>
+        <v>10.19151636887931</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>50.54324879461953</v>
+        <v>49.19573731772889</v>
       </c>
       <c r="H2">
-        <v>15.70081915242424</v>
+        <v>2.609960888617151</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.976521171363224</v>
       </c>
       <c r="J2">
-        <v>4.862478390609</v>
+        <v>14.64534543764157</v>
       </c>
       <c r="K2">
-        <v>13.38463039641508</v>
+        <v>21.59632868991024</v>
       </c>
       <c r="L2">
-        <v>8.015924582324132</v>
+        <v>5.378401472919232</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.84056515930939</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.85126132260384</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.81223178178297</v>
+        <v>18.88978275983172</v>
       </c>
       <c r="C3">
-        <v>5.723185914663912</v>
+        <v>16.29904322175479</v>
       </c>
       <c r="D3">
-        <v>9.138348524524471</v>
+        <v>9.986644802521697</v>
       </c>
       <c r="E3">
-        <v>8.418608467012522</v>
+        <v>9.802682296052119</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>49.62349120849659</v>
+        <v>47.06136271826756</v>
       </c>
       <c r="H3">
-        <v>15.62787329928133</v>
+        <v>2.939769615937474</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.225254627322523</v>
       </c>
       <c r="J3">
-        <v>4.885827808267674</v>
+        <v>14.29596894371112</v>
       </c>
       <c r="K3">
-        <v>12.76405459501886</v>
+        <v>21.15634862823725</v>
       </c>
       <c r="L3">
-        <v>7.896788550252834</v>
+        <v>5.242179366762648</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.01181048064654</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.94296027230193</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.28420769506569</v>
+        <v>18.00655745397751</v>
       </c>
       <c r="C4">
-        <v>5.543442512189004</v>
+        <v>15.52609993045275</v>
       </c>
       <c r="D4">
-        <v>9.008133796820342</v>
+        <v>9.737849711883669</v>
       </c>
       <c r="E4">
-        <v>8.392145568018879</v>
+        <v>9.555809378649434</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>49.08804770211972</v>
+        <v>45.70908377301527</v>
       </c>
       <c r="H4">
-        <v>15.59172905446039</v>
+        <v>3.148606057980095</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.383256265702097</v>
       </c>
       <c r="J4">
-        <v>4.900672898216022</v>
+        <v>14.07947165486896</v>
       </c>
       <c r="K4">
-        <v>12.37623872071581</v>
+        <v>20.88262102343144</v>
       </c>
       <c r="L4">
-        <v>7.827018764490942</v>
+        <v>5.155868518288226</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.12126568102212</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.36169976597836</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.06676121730975</v>
+        <v>17.63326009658699</v>
       </c>
       <c r="C5">
-        <v>5.468555052352263</v>
+        <v>15.21260853923296</v>
       </c>
       <c r="D5">
-        <v>8.955905535547931</v>
+        <v>9.634546248605137</v>
       </c>
       <c r="E5">
-        <v>8.382288788189546</v>
+        <v>9.452301768088926</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>48.8771768455266</v>
+        <v>45.10459601190809</v>
       </c>
       <c r="H5">
-        <v>15.5791053837161</v>
+        <v>3.235775749379965</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.451866014120009</v>
       </c>
       <c r="J5">
-        <v>4.906852894177463</v>
+        <v>13.98189681806996</v>
       </c>
       <c r="K5">
-        <v>12.21670737818211</v>
+        <v>20.75165517895628</v>
       </c>
       <c r="L5">
-        <v>7.799443889419845</v>
+        <v>5.119604132053557</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.16694181238856</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.1209025039357</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.03052633669037</v>
+        <v>17.56964808129716</v>
       </c>
       <c r="C6">
-        <v>5.45602192696115</v>
+        <v>15.1733076754538</v>
       </c>
       <c r="D6">
-        <v>8.94728482425702</v>
+        <v>9.616725336721583</v>
       </c>
       <c r="E6">
-        <v>8.380707590407987</v>
+        <v>9.4338895545292</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>48.84260299743329</v>
+        <v>44.95042197855568</v>
       </c>
       <c r="H6">
-        <v>15.57713439363786</v>
+        <v>3.250877694142897</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.467014849421225</v>
       </c>
       <c r="J6">
-        <v>4.90788703489873</v>
+        <v>13.95476049416093</v>
       </c>
       <c r="K6">
-        <v>12.19013394846166</v>
+        <v>20.70714308416879</v>
       </c>
       <c r="L6">
-        <v>7.794917031775279</v>
+        <v>5.113042841759494</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.17459076059077</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.08281086732842</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.2812839280279</v>
+        <v>17.99927306799295</v>
       </c>
       <c r="C7">
-        <v>5.542439153985031</v>
+        <v>15.55735068905343</v>
       </c>
       <c r="D7">
-        <v>9.00742598717574</v>
+        <v>9.73489578476671</v>
       </c>
       <c r="E7">
-        <v>8.392008903944225</v>
+        <v>9.551449971121501</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>49.08517422002397</v>
+        <v>45.55778118728476</v>
       </c>
       <c r="H7">
-        <v>15.59155037288168</v>
+        <v>3.151199015936081</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.393967130410351</v>
       </c>
       <c r="J7">
-        <v>4.900755711990292</v>
+        <v>14.04860302537989</v>
       </c>
       <c r="K7">
-        <v>12.37409296790626</v>
+        <v>20.81921794038416</v>
       </c>
       <c r="L7">
-        <v>7.826643402422194</v>
+        <v>5.15403876878681</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.12187735756956</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.3644439784808</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.36710157275311</v>
+        <v>19.78629952627508</v>
       </c>
       <c r="C8">
-        <v>5.909301791401707</v>
+        <v>17.13482923948942</v>
       </c>
       <c r="D8">
-        <v>9.280029148674297</v>
+        <v>10.24497358072976</v>
       </c>
       <c r="E8">
-        <v>8.450061034667369</v>
+        <v>10.05543288495308</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>50.22001723504725</v>
+        <v>48.28913537814199</v>
       </c>
       <c r="H8">
-        <v>15.67383199898551</v>
+        <v>2.724201744865171</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.07400470128483</v>
       </c>
       <c r="J8">
-        <v>4.870425373976708</v>
+        <v>14.4873969495122</v>
       </c>
       <c r="K8">
-        <v>13.17217994864644</v>
+        <v>21.36587269063529</v>
       </c>
       <c r="L8">
-        <v>7.974149363858148</v>
+        <v>5.33027223109089</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.89870850374501</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>16.55038115750138</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.40558962521206</v>
+        <v>22.90054316238753</v>
       </c>
       <c r="C9">
-        <v>6.57534952692144</v>
+        <v>19.88050461273195</v>
       </c>
       <c r="D9">
-        <v>9.837652390605509</v>
+        <v>11.19550175169697</v>
       </c>
       <c r="E9">
-        <v>8.594359976804606</v>
+        <v>10.98273243966073</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52.67922362006566</v>
+        <v>53.5304924367955</v>
       </c>
       <c r="H9">
-        <v>15.90686166152618</v>
+        <v>1.932674541404323</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.486866407706488</v>
       </c>
       <c r="J9">
-        <v>4.814855378982023</v>
+        <v>15.38016587444976</v>
       </c>
       <c r="K9">
-        <v>14.67580147994035</v>
+        <v>22.51358007931551</v>
       </c>
       <c r="L9">
-        <v>8.289899122547553</v>
+        <v>5.657592888675951</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.49589573345985</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.67391572111178</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.83747141508851</v>
+        <v>24.97628876955778</v>
       </c>
       <c r="C10">
-        <v>7.031769230675011</v>
+        <v>21.69471464934049</v>
       </c>
       <c r="D10">
-        <v>10.25905330641378</v>
+        <v>11.74450205328884</v>
       </c>
       <c r="E10">
-        <v>8.719902489982873</v>
+        <v>11.44021310233592</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.63045718235699</v>
+        <v>56.48366645605848</v>
       </c>
       <c r="H10">
-        <v>16.12605697516851</v>
+        <v>1.724803722225</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.887671438560628</v>
       </c>
       <c r="J10">
-        <v>4.77622265751708</v>
+        <v>15.87575737778423</v>
       </c>
       <c r="K10">
-        <v>15.73512439612361</v>
+        <v>23.06931352510004</v>
       </c>
       <c r="L10">
-        <v>8.53760811145461</v>
+        <v>5.841951058718542</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.22223384783461</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>20.00332937294527</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.47320390122319</v>
+        <v>26.07244341191283</v>
       </c>
       <c r="C11">
-        <v>7.232332081301156</v>
+        <v>22.15455237590069</v>
       </c>
       <c r="D11">
-        <v>10.4528919935266</v>
+        <v>11.01907002994921</v>
       </c>
       <c r="E11">
-        <v>8.781462132851116</v>
+        <v>10.16767192182721</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>55.55003494876885</v>
+        <v>52.44093953146766</v>
       </c>
       <c r="H11">
-        <v>16.23714417199254</v>
+        <v>2.723545233146034</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.993904782723499</v>
       </c>
       <c r="J11">
-        <v>4.759079533611954</v>
+        <v>14.9179284833162</v>
       </c>
       <c r="K11">
-        <v>16.20611128548209</v>
+        <v>21.1997631043515</v>
       </c>
       <c r="L11">
-        <v>8.653639013101481</v>
+        <v>5.645278927639186</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.1028800010294</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.637452938838</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.71162384814942</v>
+        <v>26.58371285754174</v>
       </c>
       <c r="C12">
-        <v>7.307279258689234</v>
+        <v>22.13009909002513</v>
       </c>
       <c r="D12">
-        <v>10.52657431250146</v>
+        <v>10.29331847444926</v>
       </c>
       <c r="E12">
-        <v>8.805430327444158</v>
+        <v>9.147990612865978</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>55.90291070779642</v>
+        <v>48.54983184814939</v>
       </c>
       <c r="H12">
-        <v>16.28092616895205</v>
+        <v>4.039611878884203</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.002232664681467</v>
       </c>
       <c r="J12">
-        <v>4.752645907405177</v>
+        <v>14.04220468428258</v>
       </c>
       <c r="K12">
-        <v>16.38284054400076</v>
+        <v>19.60446881326439</v>
       </c>
       <c r="L12">
-        <v>8.698053760993515</v>
+        <v>5.590090099896797</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.05845429788662</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>19.03450474020249</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.66037968778121</v>
+        <v>26.69068505426426</v>
       </c>
       <c r="C13">
-        <v>7.29118228828802</v>
+        <v>21.77175901604112</v>
       </c>
       <c r="D13">
-        <v>10.51069343578593</v>
+        <v>9.510307534401905</v>
       </c>
       <c r="E13">
-        <v>8.800238851507972</v>
+        <v>8.295889346240735</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>55.82670454415187</v>
+        <v>44.25698479019116</v>
       </c>
       <c r="H13">
-        <v>16.27141931634646</v>
+        <v>5.489824768584818</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.939402071925584</v>
       </c>
       <c r="J13">
-        <v>4.75402898486318</v>
+        <v>13.12569559250124</v>
       </c>
       <c r="K13">
-        <v>16.34485153511637</v>
+        <v>18.03071083492356</v>
       </c>
       <c r="L13">
-        <v>8.688467114292569</v>
+        <v>5.637928591054099</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.06798730063853</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>18.20346601849019</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.49286558854844</v>
+        <v>26.58475641927366</v>
       </c>
       <c r="C14">
-        <v>7.238517997928725</v>
+        <v>21.37346653028405</v>
       </c>
       <c r="D14">
-        <v>10.45894841087048</v>
+        <v>8.934453511352238</v>
       </c>
       <c r="E14">
-        <v>8.783420744793483</v>
+        <v>7.836368991661245</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>55.57897261046326</v>
+        <v>40.99553861532782</v>
       </c>
       <c r="H14">
-        <v>16.24071128792155</v>
+        <v>6.525646222472833</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.864978695082152</v>
       </c>
       <c r="J14">
-        <v>4.758549094167028</v>
+        <v>12.45883529108395</v>
       </c>
       <c r="K14">
-        <v>16.22068366470156</v>
+        <v>16.93747225934303</v>
       </c>
       <c r="L14">
-        <v>8.657283513040488</v>
+        <v>5.73462763976804</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.09920941384473</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>17.50927978230327</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.3899550007952</v>
+        <v>26.47103322257678</v>
       </c>
       <c r="C15">
-        <v>7.206129702193875</v>
+        <v>21.2140710312696</v>
       </c>
       <c r="D15">
-        <v>10.42728881166102</v>
+        <v>8.781115831319825</v>
       </c>
       <c r="E15">
-        <v>8.773205236125513</v>
+        <v>7.740173249180813</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>55.42783753197056</v>
+        <v>40.06726635916531</v>
       </c>
       <c r="H15">
-        <v>16.22212759918818</v>
+        <v>6.767882011457934</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.832351899771253</v>
       </c>
       <c r="J15">
-        <v>4.761325237929109</v>
+        <v>12.27907363403718</v>
       </c>
       <c r="K15">
-        <v>16.14441466651754</v>
+        <v>16.65792353080666</v>
       </c>
       <c r="L15">
-        <v>8.638244591266513</v>
+        <v>5.759088870520747</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.11843532541542</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>17.29246503966046</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.7956034020231</v>
+        <v>25.61610131731121</v>
       </c>
       <c r="C16">
-        <v>7.018520876680771</v>
+        <v>20.53544709300287</v>
       </c>
       <c r="D16">
-        <v>10.24642602582367</v>
+        <v>8.676046446376443</v>
       </c>
       <c r="E16">
-        <v>8.71597039929949</v>
+        <v>7.680686450619041</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>54.57100790574321</v>
+        <v>39.35791070508436</v>
       </c>
       <c r="H16">
-        <v>16.11903281904238</v>
+        <v>6.588027608119538</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.6772947029644</v>
       </c>
       <c r="J16">
-        <v>4.777351349918371</v>
+        <v>12.21326075457802</v>
       </c>
       <c r="K16">
-        <v>15.70411955631941</v>
+        <v>16.68370246999763</v>
       </c>
       <c r="L16">
-        <v>8.530092090824148</v>
+        <v>5.663971470323845</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.23013990407826</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>16.85970545239668</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.42692227134807</v>
+        <v>25.00292359228671</v>
       </c>
       <c r="C17">
-        <v>6.901627425087423</v>
+        <v>20.22776633008458</v>
       </c>
       <c r="D17">
-        <v>10.13599892267766</v>
+        <v>8.906856684437427</v>
       </c>
       <c r="E17">
-        <v>8.682010231769215</v>
+        <v>7.85176007775366</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>54.05358777249592</v>
+        <v>40.60674221096495</v>
       </c>
       <c r="H17">
-        <v>16.05875674825011</v>
+        <v>5.875273734565366</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.597650728732125</v>
       </c>
       <c r="J17">
-        <v>4.787290587742704</v>
+        <v>12.51999405601527</v>
       </c>
       <c r="K17">
-        <v>15.43117229929138</v>
+        <v>17.27683783661593</v>
       </c>
       <c r="L17">
-        <v>8.464597001741945</v>
+        <v>5.52542510706108</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.30000393846583</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>16.90897238297223</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.21339662432573</v>
+        <v>24.54294988593633</v>
       </c>
       <c r="C18">
-        <v>6.833727136224301</v>
+        <v>20.19022670641924</v>
       </c>
       <c r="D18">
-        <v>10.07268701900108</v>
+        <v>9.462479661754044</v>
       </c>
       <c r="E18">
-        <v>8.662895015851309</v>
+        <v>8.395011434272897</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>53.75898428550236</v>
+        <v>43.78680132839624</v>
       </c>
       <c r="H18">
-        <v>16.0251531871684</v>
+        <v>4.645372863326442</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.572825110501453</v>
       </c>
       <c r="J18">
-        <v>4.793048200348892</v>
+        <v>13.20889323720919</v>
       </c>
       <c r="K18">
-        <v>15.27315548471579</v>
+        <v>18.49828635681668</v>
       </c>
       <c r="L18">
-        <v>8.427241147952797</v>
+        <v>5.406125203505847</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.34066908804518</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>17.37642149205648</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.14085071839549</v>
+        <v>24.24670997899595</v>
       </c>
       <c r="C19">
-        <v>6.810622512368409</v>
+        <v>20.42593225331376</v>
       </c>
       <c r="D19">
-        <v>10.05128649984157</v>
+        <v>10.24252197193629</v>
       </c>
       <c r="E19">
-        <v>8.656494179400621</v>
+        <v>9.36827800574711</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>53.65975099114969</v>
+        <v>48.03293233452812</v>
       </c>
       <c r="H19">
-        <v>16.01395623239016</v>
+        <v>3.180164683905315</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.607968561261116</v>
       </c>
       <c r="J19">
-        <v>4.795004754736412</v>
+        <v>14.11561840519735</v>
       </c>
       <c r="K19">
-        <v>15.21947981036542</v>
+        <v>20.0825839090746</v>
       </c>
       <c r="L19">
-        <v>8.414647420441703</v>
+        <v>5.422646321011463</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.35451935724096</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>18.14359967998825</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.46632176060267</v>
+        <v>24.44229353510038</v>
       </c>
       <c r="C20">
-        <v>6.914139807425121</v>
+        <v>21.3108672834223</v>
       </c>
       <c r="D20">
-        <v>10.1477333075585</v>
+        <v>11.59325881004087</v>
       </c>
       <c r="E20">
-        <v>8.68558199083933</v>
+        <v>11.3059825253243</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>54.10835690357501</v>
+        <v>55.32389731302021</v>
       </c>
       <c r="H20">
-        <v>16.06506237885267</v>
+        <v>1.582095151442597</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.792269836104998</v>
       </c>
       <c r="J20">
-        <v>4.78622834083021</v>
+        <v>15.65829750022757</v>
       </c>
       <c r="K20">
-        <v>15.46033454311236</v>
+        <v>22.73976914131091</v>
       </c>
       <c r="L20">
-        <v>8.47153648831863</v>
+        <v>5.788349186311386</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.29251677256418</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.67131497471439</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.5421318370915</v>
+        <v>25.92661737683473</v>
       </c>
       <c r="C21">
-        <v>7.254013811714026</v>
+        <v>22.69400852246184</v>
       </c>
       <c r="D21">
-        <v>10.47413977478667</v>
+        <v>12.17858994596227</v>
       </c>
       <c r="E21">
-        <v>8.788342662358486</v>
+        <v>11.9273864905389</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>55.65161066460939</v>
+        <v>58.5422788751599</v>
       </c>
       <c r="H21">
-        <v>16.24968376248495</v>
+        <v>2.003138094904862</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.107621471880249</v>
       </c>
       <c r="J21">
-        <v>4.757219884055142</v>
+        <v>16.25927191634503</v>
       </c>
       <c r="K21">
-        <v>16.25719914457262</v>
+        <v>23.56950896195756</v>
       </c>
       <c r="L21">
-        <v>8.66642999057809</v>
+        <v>5.995863177488079</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.09001751116022</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>20.81979844010104</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.23171571519449</v>
+        <v>26.87018452692697</v>
       </c>
       <c r="C22">
-        <v>7.470314510499894</v>
+        <v>23.51470526237638</v>
       </c>
       <c r="D22">
-        <v>10.68908828690412</v>
+        <v>12.49734566196543</v>
       </c>
       <c r="E22">
-        <v>8.859340207774295</v>
+        <v>12.23563695470126</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>56.6873750345836</v>
+        <v>60.43062219485647</v>
       </c>
       <c r="H22">
-        <v>16.38038454229232</v>
+        <v>2.268216316569364</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.304339471650747</v>
       </c>
       <c r="J22">
-        <v>4.738597825657616</v>
+        <v>16.61297784088029</v>
       </c>
       <c r="K22">
-        <v>16.76852710822044</v>
+        <v>24.05447089580484</v>
       </c>
       <c r="L22">
-        <v>8.796580491480723</v>
+        <v>6.108527041855647</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.96218580098444</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>21.48503051360715</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.86492304631929</v>
+        <v>26.37249425306398</v>
       </c>
       <c r="C23">
-        <v>7.355397353349415</v>
+        <v>23.04999391054681</v>
       </c>
       <c r="D23">
-        <v>10.57422517261094</v>
+        <v>12.32933708420864</v>
       </c>
       <c r="E23">
-        <v>8.821090471153193</v>
+        <v>12.07461975876095</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>56.13205746464521</v>
+        <v>59.55977883296011</v>
       </c>
       <c r="H23">
-        <v>16.30968105319315</v>
+        <v>2.128473942090754</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.196409761305067</v>
       </c>
       <c r="J23">
-        <v>4.748507328790319</v>
+        <v>16.45450188881107</v>
       </c>
       <c r="K23">
-        <v>16.49649977243783</v>
+        <v>23.8599609515823</v>
       </c>
       <c r="L23">
-        <v>8.726863601129251</v>
+        <v>6.049897471556283</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.02998681187217</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>21.12698197032173</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.44851412343623</v>
+        <v>24.40157101347192</v>
       </c>
       <c r="C24">
-        <v>6.90848513038675</v>
+        <v>21.27414520286521</v>
       </c>
       <c r="D24">
-        <v>10.14242764761931</v>
+        <v>11.67616724513154</v>
       </c>
       <c r="E24">
-        <v>8.68396592609156</v>
+        <v>11.44526432960869</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.08358684942301</v>
+        <v>55.96723198801998</v>
       </c>
       <c r="H24">
-        <v>16.06220833890053</v>
+        <v>1.589701327245482</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.788293257116302</v>
       </c>
       <c r="J24">
-        <v>4.786708447149124</v>
+        <v>15.80195228147248</v>
       </c>
       <c r="K24">
-        <v>15.44715370136329</v>
+        <v>23.01667330149708</v>
       </c>
       <c r="L24">
-        <v>8.468398217369701</v>
+        <v>5.822327359815422</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.29590016717366</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.73249358126447</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.86508201619351</v>
+        <v>22.09607391956666</v>
       </c>
       <c r="C25">
-        <v>6.400948924737102</v>
+        <v>19.22103515579886</v>
       </c>
       <c r="D25">
-        <v>9.684586591414615</v>
+        <v>10.94196241100523</v>
       </c>
       <c r="E25">
-        <v>8.551963058903736</v>
+        <v>10.73435726374036</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>51.98871801260021</v>
+        <v>51.92508506711039</v>
       </c>
       <c r="H25">
-        <v>15.83570789001766</v>
+        <v>2.144294347405816</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.64931083420653</v>
       </c>
       <c r="J25">
-        <v>4.829488860844442</v>
+        <v>15.09145006863162</v>
       </c>
       <c r="K25">
-        <v>14.27654398197162</v>
+        <v>22.10220707283653</v>
       </c>
       <c r="L25">
-        <v>8.201688873707104</v>
+        <v>5.568934119455205</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.60104275304993</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>18.12974638038613</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.2466707941258</v>
+        <v>20.2523287701805</v>
       </c>
       <c r="C2">
-        <v>17.49735271674184</v>
+        <v>18.7236091608116</v>
       </c>
       <c r="D2">
-        <v>10.38187400871629</v>
+        <v>10.37293686317725</v>
       </c>
       <c r="E2">
-        <v>10.19151636887931</v>
+        <v>10.19194807440451</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>49.19573731772889</v>
+        <v>43.26972126235235</v>
       </c>
       <c r="H2">
-        <v>2.609960888617151</v>
+        <v>2.538770451333757</v>
       </c>
       <c r="I2">
-        <v>2.976521171363224</v>
+        <v>2.840680033498186</v>
       </c>
       <c r="J2">
-        <v>14.64534543764157</v>
+        <v>13.68632985066089</v>
       </c>
       <c r="K2">
-        <v>21.59632868991024</v>
+        <v>18.9551920172315</v>
       </c>
       <c r="L2">
-        <v>5.378401472919232</v>
+        <v>15.5337619192116</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.67123018195786</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.398778604277403</v>
       </c>
       <c r="O2">
-        <v>16.85126132260384</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.08931391966627</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.88978275983172</v>
+        <v>18.91553945516074</v>
       </c>
       <c r="C3">
-        <v>16.29904322175479</v>
+        <v>17.40031160472077</v>
       </c>
       <c r="D3">
-        <v>9.986644802521697</v>
+        <v>9.994819605620375</v>
       </c>
       <c r="E3">
-        <v>9.802682296052119</v>
+        <v>9.838678641080259</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>47.06136271826756</v>
+        <v>41.74482578640384</v>
       </c>
       <c r="H3">
-        <v>2.939769615937474</v>
+        <v>2.84140154808721</v>
       </c>
       <c r="I3">
-        <v>3.225254627322523</v>
+        <v>3.052563994460479</v>
       </c>
       <c r="J3">
-        <v>14.29596894371112</v>
+        <v>13.41657608995679</v>
       </c>
       <c r="K3">
-        <v>21.15634862823725</v>
+        <v>18.78017794837525</v>
       </c>
       <c r="L3">
-        <v>5.242179366762648</v>
+        <v>15.52377704338625</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.41337846597778</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.282013698121821</v>
       </c>
       <c r="O3">
-        <v>15.94296027230193</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.15600364380414</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.00655745397751</v>
+        <v>18.04495683581497</v>
       </c>
       <c r="C4">
-        <v>15.52609993045275</v>
+        <v>16.54500646204945</v>
       </c>
       <c r="D4">
-        <v>9.737849711883669</v>
+        <v>9.757241747625736</v>
       </c>
       <c r="E4">
-        <v>9.555809378649434</v>
+        <v>9.614791795277689</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>45.70908377301527</v>
+        <v>40.78676186811472</v>
       </c>
       <c r="H4">
-        <v>3.148606057980095</v>
+        <v>3.033255952508925</v>
       </c>
       <c r="I4">
-        <v>3.383256265702097</v>
+        <v>3.187634716643401</v>
       </c>
       <c r="J4">
-        <v>14.07947165486896</v>
+        <v>13.24698877725072</v>
       </c>
       <c r="K4">
-        <v>20.88262102343144</v>
+        <v>18.67125452118862</v>
       </c>
       <c r="L4">
-        <v>5.155868518288226</v>
+        <v>15.5113202586224</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.2717594991435</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.207955151670729</v>
       </c>
       <c r="O4">
-        <v>15.36169976597836</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.55773185233824</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.63326009658699</v>
+        <v>17.67697703389235</v>
       </c>
       <c r="C5">
-        <v>15.21260853923296</v>
+        <v>16.19529933056455</v>
       </c>
       <c r="D5">
-        <v>9.634546248605137</v>
+        <v>9.658759575850553</v>
       </c>
       <c r="E5">
-        <v>9.452301768088926</v>
+        <v>9.521080237758325</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>45.10459601190809</v>
+        <v>40.35396246404652</v>
       </c>
       <c r="H5">
-        <v>3.235775749379965</v>
+        <v>3.113353193561704</v>
       </c>
       <c r="I5">
-        <v>3.451866014120009</v>
+        <v>3.247239317277315</v>
       </c>
       <c r="J5">
-        <v>13.98189681806996</v>
+        <v>13.16936666378958</v>
       </c>
       <c r="K5">
-        <v>20.75165517895628</v>
+        <v>18.61146223104969</v>
       </c>
       <c r="L5">
-        <v>5.119604132053557</v>
+        <v>15.49227244775877</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.20803484156282</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.176829527944627</v>
       </c>
       <c r="O5">
-        <v>15.1209025039357</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.30935171791927</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.56964808129716</v>
+        <v>17.61433983417592</v>
       </c>
       <c r="C6">
-        <v>15.1733076754538</v>
+        <v>16.14837691866264</v>
       </c>
       <c r="D6">
-        <v>9.616725336721583</v>
+        <v>9.641835368928566</v>
       </c>
       <c r="E6">
-        <v>9.4338895545292</v>
+        <v>9.504479042844821</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.95042197855568</v>
+        <v>40.23625721191782</v>
       </c>
       <c r="H6">
-        <v>3.250877694142897</v>
+        <v>3.127189734650621</v>
       </c>
       <c r="I6">
-        <v>3.467014849421225</v>
+        <v>3.261453437846774</v>
       </c>
       <c r="J6">
-        <v>13.95476049416093</v>
+        <v>13.14717694519137</v>
       </c>
       <c r="K6">
-        <v>20.70714308416879</v>
+        <v>18.58316943035902</v>
       </c>
       <c r="L6">
-        <v>5.113042841759494</v>
+        <v>15.47391972989766</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.18505630032963</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.171207111972556</v>
       </c>
       <c r="O6">
-        <v>15.08281086732842</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.26968345488813</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.99927306799295</v>
+        <v>18.03820546277592</v>
       </c>
       <c r="C7">
-        <v>15.55735068905343</v>
+        <v>16.5572472339284</v>
       </c>
       <c r="D7">
-        <v>9.73489578476671</v>
+        <v>9.754498009958644</v>
       </c>
       <c r="E7">
-        <v>9.551449971121501</v>
+        <v>9.610617939732741</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>45.55778118728476</v>
+        <v>40.70599638426635</v>
       </c>
       <c r="H7">
-        <v>3.151199015936081</v>
+        <v>3.036445455501914</v>
       </c>
       <c r="I7">
-        <v>3.393967130410351</v>
+        <v>3.20057533856689</v>
       </c>
       <c r="J7">
-        <v>14.04860302537989</v>
+        <v>13.15626271957369</v>
       </c>
       <c r="K7">
-        <v>20.81921794038416</v>
+        <v>18.5971239156457</v>
       </c>
       <c r="L7">
-        <v>5.15403876878681</v>
+        <v>15.45144452748205</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.21935857059602</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.205967414735813</v>
       </c>
       <c r="O7">
-        <v>15.3644439784808</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.55738300161017</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.78629952627508</v>
+        <v>19.799820993795</v>
       </c>
       <c r="C8">
-        <v>17.13482923948942</v>
+        <v>18.27001593477673</v>
       </c>
       <c r="D8">
-        <v>10.24497358072976</v>
+        <v>10.24190367612885</v>
       </c>
       <c r="E8">
-        <v>10.05543288495308</v>
+        <v>10.06737492248337</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>48.28913537814199</v>
+        <v>42.74749344916437</v>
       </c>
       <c r="H8">
-        <v>2.724201744865171</v>
+        <v>2.646259451831254</v>
       </c>
       <c r="I8">
-        <v>3.07400470128483</v>
+        <v>2.930136386714348</v>
       </c>
       <c r="J8">
-        <v>14.4873969495122</v>
+        <v>13.35375294925738</v>
       </c>
       <c r="K8">
-        <v>21.36587269063529</v>
+        <v>18.75470265757685</v>
       </c>
       <c r="L8">
-        <v>5.33027223109089</v>
+        <v>15.421902384822</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.47505033316528</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.356230757549893</v>
       </c>
       <c r="O8">
-        <v>16.55038115750138</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.77222836861533</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.90054316238753</v>
+        <v>22.86451671896799</v>
       </c>
       <c r="C9">
-        <v>19.88050461273195</v>
+        <v>21.29555315566616</v>
       </c>
       <c r="D9">
-        <v>11.19550175169697</v>
+        <v>11.15334865891205</v>
       </c>
       <c r="E9">
-        <v>10.98273243966073</v>
+        <v>10.9115517917871</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>53.5304924367955</v>
+        <v>46.5931091731464</v>
       </c>
       <c r="H9">
-        <v>1.932674541404323</v>
+        <v>1.922040255807524</v>
       </c>
       <c r="I9">
-        <v>2.486866407706488</v>
+        <v>2.547417574607916</v>
       </c>
       <c r="J9">
-        <v>15.38016587444976</v>
+        <v>13.98701963605451</v>
       </c>
       <c r="K9">
-        <v>22.51358007931551</v>
+        <v>19.22577738983239</v>
       </c>
       <c r="L9">
-        <v>5.657592888675951</v>
+        <v>15.45067295988167</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.22876350408676</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.636108896083816</v>
       </c>
       <c r="O9">
-        <v>18.67391572111178</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.94851969748492</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.97628876955778</v>
+        <v>24.90662957710562</v>
       </c>
       <c r="C10">
-        <v>21.69471464934049</v>
+        <v>23.19970405541101</v>
       </c>
       <c r="D10">
-        <v>11.74450205328884</v>
+        <v>11.67826236042071</v>
       </c>
       <c r="E10">
-        <v>11.44021310233592</v>
+        <v>11.31510526537954</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.48366645605848</v>
+        <v>48.99128896687919</v>
       </c>
       <c r="H10">
-        <v>1.724803722225</v>
+        <v>1.685541457423224</v>
       </c>
       <c r="I10">
-        <v>2.887671438560628</v>
+        <v>2.885939271355757</v>
       </c>
       <c r="J10">
-        <v>15.87575737778423</v>
+        <v>13.98090720830073</v>
       </c>
       <c r="K10">
-        <v>23.06931352510004</v>
+        <v>19.24715158364319</v>
       </c>
       <c r="L10">
-        <v>5.841951058718542</v>
+        <v>15.21226796525315</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.59421839385989</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.787215160123515</v>
       </c>
       <c r="O10">
-        <v>20.00332937294527</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>20.29324820498801</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.07244341191283</v>
+        <v>26.00577633059347</v>
       </c>
       <c r="C11">
-        <v>22.15455237590069</v>
+        <v>23.3863760896175</v>
       </c>
       <c r="D11">
-        <v>11.01907002994921</v>
+        <v>10.95501400779408</v>
       </c>
       <c r="E11">
-        <v>10.16767192182721</v>
+        <v>10.04310927278501</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>52.44093953146766</v>
+        <v>46.10293973128847</v>
       </c>
       <c r="H11">
-        <v>2.723545233146034</v>
+        <v>2.689575433074415</v>
       </c>
       <c r="I11">
-        <v>2.993904782723499</v>
+        <v>2.976564411553704</v>
       </c>
       <c r="J11">
-        <v>14.9179284833162</v>
+        <v>12.52149515899421</v>
       </c>
       <c r="K11">
-        <v>21.1997631043515</v>
+        <v>17.51021621795405</v>
       </c>
       <c r="L11">
-        <v>5.645278927639186</v>
+        <v>13.87097389860613</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.35920737589974</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.591426337230709</v>
       </c>
       <c r="O11">
-        <v>19.637452938838</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.87917481877117</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.58371285754174</v>
+        <v>26.52549417695225</v>
       </c>
       <c r="C12">
-        <v>22.13009909002513</v>
+        <v>23.15357678103725</v>
       </c>
       <c r="D12">
-        <v>10.29331847444926</v>
+        <v>10.23512561891735</v>
       </c>
       <c r="E12">
-        <v>9.147990612865978</v>
+        <v>9.034178054998861</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>48.54983184814939</v>
+        <v>43.12752999478538</v>
       </c>
       <c r="H12">
-        <v>4.039611878884203</v>
+        <v>4.035143740803335</v>
       </c>
       <c r="I12">
-        <v>3.002232664681467</v>
+        <v>2.983759761312533</v>
       </c>
       <c r="J12">
-        <v>14.04220468428258</v>
+        <v>11.56072046926372</v>
       </c>
       <c r="K12">
-        <v>19.60446881326439</v>
+        <v>16.21872748127035</v>
       </c>
       <c r="L12">
-        <v>5.590090099896797</v>
+        <v>12.94380653489068</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.35494410596646</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.543698190922761</v>
       </c>
       <c r="O12">
-        <v>19.03450474020249</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>19.23995150656776</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.69068505426426</v>
+        <v>26.64543026316354</v>
       </c>
       <c r="C13">
-        <v>21.77175901604112</v>
+        <v>22.63994825655288</v>
       </c>
       <c r="D13">
-        <v>9.510307534401905</v>
+        <v>9.461619416842419</v>
       </c>
       <c r="E13">
-        <v>8.295889346240735</v>
+        <v>8.205880624640718</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.25698479019116</v>
+        <v>39.56008128336605</v>
       </c>
       <c r="H13">
-        <v>5.489824768584818</v>
+        <v>5.501973530631063</v>
       </c>
       <c r="I13">
-        <v>2.939402071925584</v>
+        <v>2.933984254921257</v>
       </c>
       <c r="J13">
-        <v>13.12569559250124</v>
+        <v>10.98324272063079</v>
       </c>
       <c r="K13">
-        <v>18.03071083492356</v>
+        <v>15.16078209357189</v>
       </c>
       <c r="L13">
-        <v>5.637928591054099</v>
+        <v>12.23628948988722</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.45135463597916</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.605676479473475</v>
       </c>
       <c r="O13">
-        <v>18.20346601849019</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>18.38185501236397</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.58475641927366</v>
+        <v>26.5505100581128</v>
       </c>
       <c r="C14">
-        <v>21.37346653028405</v>
+        <v>22.15213163576222</v>
       </c>
       <c r="D14">
-        <v>8.934453511352238</v>
+        <v>8.89434113898767</v>
       </c>
       <c r="E14">
-        <v>7.836368991661245</v>
+        <v>7.770552686742225</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>40.99553861532782</v>
+        <v>36.73875999933189</v>
       </c>
       <c r="H14">
-        <v>6.525646222472833</v>
+        <v>6.533023328154262</v>
       </c>
       <c r="I14">
-        <v>2.864978695082152</v>
+        <v>2.875156308782731</v>
       </c>
       <c r="J14">
-        <v>12.45883529108395</v>
+        <v>10.72316736971367</v>
       </c>
       <c r="K14">
-        <v>16.93747225934303</v>
+        <v>14.51717942322026</v>
       </c>
       <c r="L14">
-        <v>5.73462763976804</v>
+        <v>11.82626144756648</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.861483171175417</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.714732128009461</v>
       </c>
       <c r="O14">
-        <v>17.50927978230327</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>17.67175363074096</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.47103322257678</v>
+        <v>26.44055523699076</v>
       </c>
       <c r="C15">
-        <v>21.2140710312696</v>
+        <v>21.97867958826595</v>
       </c>
       <c r="D15">
-        <v>8.781115831319825</v>
+        <v>8.744151206594083</v>
       </c>
       <c r="E15">
-        <v>7.740173249180813</v>
+        <v>7.683642949915548</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>40.06726635916531</v>
+        <v>35.89449453107515</v>
       </c>
       <c r="H15">
-        <v>6.767882011457934</v>
+        <v>6.773659123993632</v>
       </c>
       <c r="I15">
-        <v>2.832351899771253</v>
+        <v>2.849955453970335</v>
       </c>
       <c r="J15">
-        <v>12.27907363403718</v>
+        <v>10.71315500103615</v>
       </c>
       <c r="K15">
-        <v>16.65792353080666</v>
+        <v>14.38560505662192</v>
       </c>
       <c r="L15">
-        <v>5.759088870520747</v>
+        <v>11.74888147343211</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.725543376321506</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.743720058613375</v>
       </c>
       <c r="O15">
-        <v>17.29246503966046</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>17.45223163196122</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.61610131731121</v>
+        <v>25.59571951457507</v>
       </c>
       <c r="C16">
-        <v>20.53544709300287</v>
+        <v>21.37529821542115</v>
       </c>
       <c r="D16">
-        <v>8.676046446376443</v>
+        <v>8.648605231600225</v>
       </c>
       <c r="E16">
-        <v>7.680686450619041</v>
+        <v>7.653053641167036</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>39.35791070508436</v>
+        <v>34.96044293943763</v>
       </c>
       <c r="H16">
-        <v>6.588027608119538</v>
+        <v>6.587423410006589</v>
       </c>
       <c r="I16">
-        <v>2.6772947029644</v>
+        <v>2.72469884050146</v>
       </c>
       <c r="J16">
-        <v>12.21326075457802</v>
+        <v>11.22849183571542</v>
       </c>
       <c r="K16">
-        <v>16.68370246999763</v>
+        <v>14.70172467963389</v>
       </c>
       <c r="L16">
-        <v>5.663971470323845</v>
+        <v>12.01470133586315</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.875266258847768</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.66391479040378</v>
       </c>
       <c r="O16">
-        <v>16.85970545239668</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>17.03123513575445</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.00292359228671</v>
+        <v>24.98480164429727</v>
       </c>
       <c r="C17">
-        <v>20.22776633008458</v>
+        <v>21.15985915241446</v>
       </c>
       <c r="D17">
-        <v>8.906856684437427</v>
+        <v>8.881857556097891</v>
       </c>
       <c r="E17">
-        <v>7.85176007775366</v>
+        <v>7.830926142046509</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>40.60674221096495</v>
+        <v>35.8556857513707</v>
       </c>
       <c r="H17">
-        <v>5.875273734565366</v>
+        <v>5.870742580656511</v>
       </c>
       <c r="I17">
-        <v>2.597650728732125</v>
+        <v>2.659069525451828</v>
       </c>
       <c r="J17">
-        <v>12.51999405601527</v>
+        <v>11.71311681025943</v>
       </c>
       <c r="K17">
-        <v>17.27683783661593</v>
+        <v>15.26409828298667</v>
       </c>
       <c r="L17">
-        <v>5.52542510706108</v>
+        <v>12.43791629597825</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.27546832656386</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.530372338816557</v>
       </c>
       <c r="O17">
-        <v>16.90897238297223</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>17.09602820386388</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.54294988593633</v>
+        <v>24.51990810007105</v>
       </c>
       <c r="C18">
-        <v>20.19022670641924</v>
+        <v>21.26578806644868</v>
       </c>
       <c r="D18">
-        <v>9.462479661754044</v>
+        <v>9.433387417683228</v>
       </c>
       <c r="E18">
-        <v>8.395011434272897</v>
+        <v>8.362269175138429</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>43.78680132839624</v>
+        <v>38.41501635985918</v>
       </c>
       <c r="H18">
-        <v>4.645372863326442</v>
+        <v>4.639154913196395</v>
       </c>
       <c r="I18">
-        <v>2.572825110501453</v>
+        <v>2.635455154727976</v>
       </c>
       <c r="J18">
-        <v>13.20889323720919</v>
+        <v>12.35794565324394</v>
       </c>
       <c r="K18">
-        <v>18.49828635681668</v>
+        <v>16.20610306438721</v>
       </c>
       <c r="L18">
-        <v>5.406125203505847</v>
+        <v>13.12719696258707</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.0059039820634</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.40714153454032</v>
       </c>
       <c r="O18">
-        <v>17.37642149205648</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>17.58886814936568</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.24670997899595</v>
+        <v>24.21321140827521</v>
       </c>
       <c r="C19">
-        <v>20.42593225331376</v>
+        <v>21.67634704800615</v>
       </c>
       <c r="D19">
-        <v>10.24252197193629</v>
+        <v>10.20455935726308</v>
       </c>
       <c r="E19">
-        <v>9.36827800574711</v>
+        <v>9.311190435992927</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>48.03293233452812</v>
+        <v>41.86647443741661</v>
       </c>
       <c r="H19">
-        <v>3.180164683905315</v>
+        <v>3.175845684849941</v>
       </c>
       <c r="I19">
-        <v>2.607968561261116</v>
+        <v>2.663710751022065</v>
       </c>
       <c r="J19">
-        <v>14.11561840519735</v>
+        <v>13.09753784658647</v>
       </c>
       <c r="K19">
-        <v>20.0825839090746</v>
+        <v>17.36407390947679</v>
       </c>
       <c r="L19">
-        <v>5.422646321011463</v>
+        <v>13.96859020296167</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.92375683216726</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.41138210498343</v>
       </c>
       <c r="O19">
-        <v>18.14359967998825</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.38744794828353</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.44229353510038</v>
+        <v>24.38191156227832</v>
       </c>
       <c r="C20">
-        <v>21.3108672834223</v>
+        <v>22.82237100173733</v>
       </c>
       <c r="D20">
-        <v>11.59325881004087</v>
+        <v>11.53389382543088</v>
       </c>
       <c r="E20">
-        <v>11.3059825253243</v>
+        <v>11.19703811169319</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>55.32389731302021</v>
+        <v>47.87781536551979</v>
       </c>
       <c r="H20">
-        <v>1.582095151442597</v>
+        <v>1.580213563831749</v>
       </c>
       <c r="I20">
-        <v>2.792269836104998</v>
+        <v>2.813636924278503</v>
       </c>
       <c r="J20">
-        <v>15.65829750022757</v>
+        <v>14.11791185746389</v>
       </c>
       <c r="K20">
-        <v>22.73976914131091</v>
+        <v>19.16956439588344</v>
       </c>
       <c r="L20">
-        <v>5.788349186311386</v>
+        <v>15.22350729948614</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.43786025101558</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.744289558168373</v>
       </c>
       <c r="O20">
-        <v>19.67131497471439</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.96218413792598</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.92661737683473</v>
+        <v>25.83952007345344</v>
       </c>
       <c r="C21">
-        <v>22.69400852246184</v>
+        <v>24.10542435774148</v>
       </c>
       <c r="D21">
-        <v>12.17858994596227</v>
+        <v>12.09952059689119</v>
       </c>
       <c r="E21">
-        <v>11.9273864905389</v>
+        <v>11.77024730574595</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.5422788751599</v>
+        <v>51.29412722398013</v>
       </c>
       <c r="H21">
-        <v>2.003138094904862</v>
+        <v>1.926026932601749</v>
       </c>
       <c r="I21">
-        <v>3.107621471880249</v>
+        <v>3.065738709986992</v>
       </c>
       <c r="J21">
-        <v>16.25927191634503</v>
+        <v>13.22127704107048</v>
       </c>
       <c r="K21">
-        <v>23.56950896195756</v>
+        <v>19.0889994278807</v>
       </c>
       <c r="L21">
-        <v>5.995863177488079</v>
+        <v>14.97228060488663</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.6542015273045</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.917279197008683</v>
       </c>
       <c r="O21">
-        <v>20.81979844010104</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>21.09260010081741</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.87018452692697</v>
+        <v>26.7661001988237</v>
       </c>
       <c r="C22">
-        <v>23.51470526237638</v>
+        <v>24.8413117555797</v>
       </c>
       <c r="D22">
-        <v>12.49734566196543</v>
+        <v>12.40689003949971</v>
       </c>
       <c r="E22">
-        <v>12.23563695470126</v>
+        <v>12.04994045246566</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.43062219485647</v>
+        <v>53.41713203545682</v>
       </c>
       <c r="H22">
-        <v>2.268216316569364</v>
+        <v>2.156388945900902</v>
       </c>
       <c r="I22">
-        <v>3.304339471650747</v>
+        <v>3.220414141744964</v>
       </c>
       <c r="J22">
-        <v>16.61297784088029</v>
+        <v>12.55482582633324</v>
       </c>
       <c r="K22">
-        <v>24.05447089580484</v>
+        <v>18.9758892746096</v>
       </c>
       <c r="L22">
-        <v>6.108527041855647</v>
+        <v>14.76534281901615</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.75453506226281</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.008787012132474</v>
       </c>
       <c r="O22">
-        <v>21.48503051360715</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.74124719920037</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.37249425306398</v>
+        <v>26.27678585480023</v>
       </c>
       <c r="C23">
-        <v>23.04999391054681</v>
+        <v>24.45250865120732</v>
       </c>
       <c r="D23">
-        <v>12.32933708420864</v>
+        <v>12.24452612404482</v>
       </c>
       <c r="E23">
-        <v>12.07461975876095</v>
+        <v>11.90376438014554</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.55977883296011</v>
+        <v>52.29330538268666</v>
       </c>
       <c r="H23">
-        <v>2.128473942090754</v>
+        <v>2.036446218117141</v>
       </c>
       <c r="I23">
-        <v>3.196409761305067</v>
+        <v>3.13465598015576</v>
       </c>
       <c r="J23">
-        <v>16.45450188881107</v>
+        <v>13.0762380843721</v>
       </c>
       <c r="K23">
-        <v>23.8599609515823</v>
+        <v>19.14288290343634</v>
       </c>
       <c r="L23">
-        <v>6.049897471556283</v>
+        <v>14.9503579260783</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.78626826207996</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.961792142708245</v>
       </c>
       <c r="O23">
-        <v>21.12698197032173</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>21.39755077807271</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.40157101347192</v>
+        <v>24.33965272965692</v>
       </c>
       <c r="C24">
-        <v>21.27414520286521</v>
+        <v>22.8094742344156</v>
       </c>
       <c r="D24">
-        <v>11.67616724513154</v>
+        <v>11.61557608519481</v>
       </c>
       <c r="E24">
-        <v>11.44526432960869</v>
+        <v>11.33368458424068</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>55.96723198801998</v>
+        <v>48.40669670529901</v>
       </c>
       <c r="H24">
-        <v>1.589701327245482</v>
+        <v>1.565567081557276</v>
       </c>
       <c r="I24">
-        <v>2.788293257116302</v>
+        <v>2.806314359291508</v>
       </c>
       <c r="J24">
-        <v>15.80195228147248</v>
+        <v>14.24472906308964</v>
       </c>
       <c r="K24">
-        <v>23.01667330149708</v>
+        <v>19.38719860283942</v>
       </c>
       <c r="L24">
-        <v>5.822327359815422</v>
+        <v>15.38431875539888</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.6058767976466</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.776533567679251</v>
       </c>
       <c r="O24">
-        <v>19.73249358126447</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>20.02774155742694</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.09607391956666</v>
+        <v>22.07361163220865</v>
       </c>
       <c r="C25">
-        <v>19.22103515579886</v>
+        <v>20.57641133727524</v>
       </c>
       <c r="D25">
-        <v>10.94196241100523</v>
+        <v>10.91024901640618</v>
       </c>
       <c r="E25">
-        <v>10.73435726374036</v>
+        <v>10.68591459060406</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>51.92508506711039</v>
+        <v>45.31576231873504</v>
       </c>
       <c r="H25">
-        <v>2.144294347405816</v>
+        <v>2.114004207174478</v>
       </c>
       <c r="I25">
-        <v>2.64931083420653</v>
+        <v>2.572779009567656</v>
       </c>
       <c r="J25">
-        <v>15.09145006863162</v>
+        <v>13.86416921190524</v>
       </c>
       <c r="K25">
-        <v>22.10220707283653</v>
+        <v>19.04652049958746</v>
       </c>
       <c r="L25">
-        <v>5.568934119455205</v>
+        <v>15.40888280890068</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.97138956127575</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.560992428612558</v>
       </c>
       <c r="O25">
-        <v>18.12974638038613</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>18.39312420501918</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
